--- a/AMZN/AMZN.xlsx
+++ b/AMZN/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/AMZN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2048" documentId="11_2083BC90071DD593AC5C88F2D4CE03C220FD4CD7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA7C5405-F03C-4FD7-9EDB-580BE2E57B96}"/>
+  <xr:revisionPtr revIDLastSave="2066" documentId="11_2083BC90071DD593AC5C88F2D4CE03C220FD4CD7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6038B6B5-22C9-4C85-B82B-F1D0E8870C88}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1180" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7222,10 +7222,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -7346,13 +7342,11 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>175.39</v>
-    <v>88.12</v>
-    <v>1.1617999999999999</v>
-    <v>-3.7</v>
-    <v>1.72E-3</v>
-    <v>-2.1469000000000002E-2</v>
-    <v>0.28999999999999998</v>
+    <v>189.77</v>
+    <v>101.15</v>
+    <v>1.1509</v>
+    <v>-2.95</v>
+    <v>-1.6431000000000001E-2</v>
     <v>USD</v>
     <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content it has purchased for resale and products offered by third-party sellers. The Company’s segments include North America, International and Amazon Web Services (AWS). It serves consumers through its online and physical stores and focuses on selection, price, and convenience. Customers access its offerings through its Websites, mobile apps, Alexa, devices, streaming, and physically visiting its stores. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, Ring, Blink, and eero, and it develops and produces media content. It serves developers and enterprises of all sizes, including start-ups, government agencies, and academic institutions, through AWS, which offers a broad set of on-demand technology services, including compute, storage, database, analytics, and machine learning, and other services.</v>
     <v>1525000</v>
@@ -7360,25 +7354,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
-    <v>170.95</v>
+    <v>180.32300000000001</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45336.041617291405</v>
+    <v>45406.999997823441</v>
     <v>0</v>
-    <v>165.75</v>
-    <v>1751727763199</v>
+    <v>176.18</v>
+    <v>1836039782100</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
-    <v>167.73</v>
-    <v>60.3765</v>
-    <v>172.34</v>
-    <v>168.64</v>
-    <v>168.93</v>
-    <v>10387380000</v>
+    <v>179.94</v>
+    <v>61.117100000000001</v>
+    <v>179.54</v>
+    <v>176.59</v>
+    <v>10397190000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>56345122</v>
-    <v>49797264</v>
+    <v>68459</v>
+    <v>35582141</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -7409,9 +7402,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -7432,7 +7423,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -7449,7 +7439,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -7460,16 +7450,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -7535,19 +7522,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -7592,9 +7573,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -7602,9 +7580,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -7989,7 +7964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -8009,7 +7984,7 @@
       </c>
       <c r="B2" s="32">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>168.64</v>
+        <v>176.59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -8018,7 +7993,7 @@
       </c>
       <c r="B3" s="7">
         <f t="array" ref="B3">_FV(A1,"Shares outstanding",TRUE)/1000000</f>
-        <v>10387.379999999999</v>
+        <v>10397.19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -8027,7 +8002,7 @@
       </c>
       <c r="B4" s="63">
         <f>B2*B3</f>
-        <v>1751727.7631999997</v>
+        <v>1836039.7821000002</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -8057,7 +8032,7 @@
       </c>
       <c r="B7" s="64">
         <f>B4-B5+B6</f>
-        <v>1821819.7631999997</v>
+        <v>1906131.7821000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -8066,7 +8041,7 @@
       </c>
       <c r="B8" s="32">
         <f>B7/B3</f>
-        <v>175.38780358473454</v>
+        <v>183.33143686900019</v>
       </c>
     </row>
   </sheetData>
@@ -8136,11 +8111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CA144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="BE9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="BE17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BV55" sqref="BV55"/>
+      <selection pane="bottomRight" activeCell="BO33" sqref="BO33:BS33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/AMZN/AMZN.xlsx
+++ b/AMZN/AMZN.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/AMZN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2066" documentId="11_2083BC90071DD593AC5C88F2D4CE03C220FD4CD7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6038B6B5-22C9-4C85-B82B-F1D0E8870C88}"/>
+  <xr:revisionPtr revIDLastSave="2783" documentId="11_2083BC90071DD593AC5C88F2D4CE03C220FD4CD7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5D3DA9F-A3C3-42CD-9E93-1BAD4FFB65A8}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41080" yWindow="1760" windowWidth="29050" windowHeight="19020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary" sheetId="4" r:id="rId4"/>
-    <sheet name="Income Statement" sheetId="5" r:id="rId5"/>
-    <sheet name="Balance Sheet" sheetId="6" r:id="rId6"/>
-    <sheet name="Cash Flow" sheetId="7" r:id="rId7"/>
+    <sheet name="New Model" sheetId="8" r:id="rId4"/>
+    <sheet name="Summary" sheetId="4" r:id="rId5"/>
+    <sheet name="Income Statement" sheetId="5" r:id="rId6"/>
+    <sheet name="Balance Sheet" sheetId="6" r:id="rId7"/>
+    <sheet name="Cash Flow" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,9 +134,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLRICHVALUE" count="1">
     <bk>
@@ -146,6 +148,20 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </cellMetadata>
   <valueMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
@@ -155,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="1909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="1943">
   <si>
     <t>Price</t>
   </si>
@@ -5882,19 +5898,122 @@
   </si>
   <si>
     <t>Q117</t>
+  </si>
+  <si>
+    <t>Fiscal Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filing Date </t>
+  </si>
+  <si>
+    <t>Period Of Report</t>
+  </si>
+  <si>
+    <t>COGs</t>
+  </si>
+  <si>
+    <t>Technology and infrastructure</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Other operating expense</t>
+  </si>
+  <si>
+    <t>Total Operating Expense</t>
+  </si>
+  <si>
+    <t>Interest income</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t>Income before tax</t>
+  </si>
+  <si>
+    <t>Taxes (expense)</t>
+  </si>
+  <si>
+    <t>Equity-method investment activity</t>
+  </si>
+  <si>
+    <t>EPS - Basic</t>
+  </si>
+  <si>
+    <t>Shares - Diluted</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Revenue Mix</t>
+  </si>
+  <si>
+    <t>Segments</t>
+  </si>
+  <si>
+    <t>Third-party seller services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subscription services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>Technology &amp; infrastructure</t>
+  </si>
+  <si>
+    <t>Other Operating</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Earnings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5957,6 +6076,16 @@
       <i/>
       <u/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6132,7 +6261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6262,6 +6391,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7185,6 +7319,61 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>117928</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4654EA-7F3E-1B16-0993-07ED1B7DE81D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19259550" y="27214"/>
+          <a:ext cx="9071" cy="17032514"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>18675</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -7220,6 +7409,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7342,36 +7535,39 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>189.77</v>
-    <v>101.15</v>
-    <v>1.1509</v>
-    <v>-2.95</v>
-    <v>-1.6431000000000001E-2</v>
+    <v>201.2</v>
+    <v>118.35</v>
+    <v>1.1604000000000001</v>
+    <v>5.27</v>
+    <v>8.5570000000000004E-3</v>
+    <v>2.9002E-2</v>
+    <v>1.6</v>
     <v>USD</v>
     <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content it has purchased for resale and products offered by third-party sellers. The Company’s segments include North America, International and Amazon Web Services (AWS). It serves consumers through its online and physical stores and focuses on selection, price, and convenience. Customers access its offerings through its Websites, mobile apps, Alexa, devices, streaming, and physically visiting its stores. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, Ring, Blink, and eero, and it develops and produces media content. It serves developers and enterprises of all sizes, including start-ups, government agencies, and academic institutions, through AWS, which offers a broad set of on-demand technology services, including compute, storage, database, analytics, and machine learning, and other services.</v>
-    <v>1525000</v>
+    <v>1521000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
-    <v>180.32300000000001</v>
+    <v>187.94</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45406.999997823441</v>
+    <v>45504.90689326328</v>
     <v>0</v>
-    <v>176.18</v>
-    <v>1836039782100</v>
+    <v>184.46</v>
+    <v>1890988000000</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
-    <v>179.94</v>
-    <v>61.117100000000001</v>
-    <v>179.54</v>
-    <v>176.59</v>
-    <v>10397190000</v>
+    <v>185.05</v>
+    <v>51.036299999999997</v>
+    <v>181.71</v>
+    <v>186.98</v>
+    <v>188.58</v>
+    <v>10406630000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>68459</v>
-    <v>35582141</v>
+    <v>41418563</v>
+    <v>43551221</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -7402,7 +7598,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -7423,6 +7621,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -7439,7 +7638,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -7450,13 +7649,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -7522,13 +7724,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -7573,6 +7781,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -7580,6 +7791,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -7984,7 +8198,7 @@
       </c>
       <c r="B2" s="32">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>176.59</v>
+        <v>186.98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -7993,7 +8207,7 @@
       </c>
       <c r="B3" s="7">
         <f t="array" ref="B3">_FV(A1,"Shares outstanding",TRUE)/1000000</f>
-        <v>10397.19</v>
+        <v>10406.629999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -8002,7 +8216,7 @@
       </c>
       <c r="B4" s="63">
         <f>B2*B3</f>
-        <v>1836039.7821000002</v>
+        <v>1945831.6773999997</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -8032,7 +8246,7 @@
       </c>
       <c r="B7" s="64">
         <f>B4-B5+B6</f>
-        <v>1906131.7821000002</v>
+        <v>2015923.6773999997</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -8041,7 +8255,7 @@
       </c>
       <c r="B8" s="32">
         <f>B7/B3</f>
-        <v>183.33143686900019</v>
+        <v>193.71532161708447</v>
       </c>
     </row>
   </sheetData>
@@ -8111,7 +8325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CA144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="BE17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -29919,6 +30133,5653 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893B9CE3-70C7-4484-B799-2A8EFF13C19F}">
+  <dimension ref="B1:CY98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="J38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="Y42" sqref="L42:Y42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:103" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="L1">
+        <f>M1-1</f>
+        <v>2010</v>
+      </c>
+      <c r="M1">
+        <f t="shared" ref="M1:W1" si="0">N1-1</f>
+        <v>2011</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="W1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="X1">
+        <f>Y1-1</f>
+        <v>2022</v>
+      </c>
+      <c r="Y1">
+        <v>2023</v>
+      </c>
+      <c r="Z1">
+        <f>Y1+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AA1">
+        <f t="shared" ref="AA1:CL1" si="1">Z1+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AB1">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="AC1">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="AD1">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="AE1">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" si="1"/>
+        <v>2031</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="1"/>
+        <v>2032</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" si="1"/>
+        <v>2033</v>
+      </c>
+      <c r="AJ1">
+        <f t="shared" si="1"/>
+        <v>2034</v>
+      </c>
+      <c r="AK1">
+        <f t="shared" si="1"/>
+        <v>2035</v>
+      </c>
+      <c r="AL1">
+        <f t="shared" si="1"/>
+        <v>2036</v>
+      </c>
+      <c r="AM1">
+        <f t="shared" si="1"/>
+        <v>2037</v>
+      </c>
+      <c r="AN1">
+        <f t="shared" si="1"/>
+        <v>2038</v>
+      </c>
+      <c r="AO1">
+        <f t="shared" si="1"/>
+        <v>2039</v>
+      </c>
+      <c r="AP1">
+        <f t="shared" si="1"/>
+        <v>2040</v>
+      </c>
+      <c r="AQ1">
+        <f t="shared" si="1"/>
+        <v>2041</v>
+      </c>
+      <c r="AR1">
+        <f t="shared" si="1"/>
+        <v>2042</v>
+      </c>
+      <c r="AS1">
+        <f t="shared" si="1"/>
+        <v>2043</v>
+      </c>
+      <c r="AT1">
+        <f t="shared" si="1"/>
+        <v>2044</v>
+      </c>
+      <c r="AU1">
+        <f t="shared" si="1"/>
+        <v>2045</v>
+      </c>
+      <c r="AV1">
+        <f t="shared" si="1"/>
+        <v>2046</v>
+      </c>
+      <c r="AW1">
+        <f t="shared" si="1"/>
+        <v>2047</v>
+      </c>
+      <c r="AX1">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="AY1">
+        <f t="shared" si="1"/>
+        <v>2049</v>
+      </c>
+      <c r="AZ1">
+        <f t="shared" si="1"/>
+        <v>2050</v>
+      </c>
+      <c r="BA1">
+        <f t="shared" si="1"/>
+        <v>2051</v>
+      </c>
+      <c r="BB1">
+        <f t="shared" si="1"/>
+        <v>2052</v>
+      </c>
+      <c r="BC1">
+        <f t="shared" si="1"/>
+        <v>2053</v>
+      </c>
+      <c r="BD1">
+        <f t="shared" si="1"/>
+        <v>2054</v>
+      </c>
+      <c r="BE1">
+        <f t="shared" si="1"/>
+        <v>2055</v>
+      </c>
+      <c r="BF1">
+        <f t="shared" si="1"/>
+        <v>2056</v>
+      </c>
+      <c r="BG1">
+        <f t="shared" si="1"/>
+        <v>2057</v>
+      </c>
+      <c r="BH1">
+        <f t="shared" si="1"/>
+        <v>2058</v>
+      </c>
+      <c r="BI1">
+        <f t="shared" si="1"/>
+        <v>2059</v>
+      </c>
+      <c r="BJ1">
+        <f t="shared" si="1"/>
+        <v>2060</v>
+      </c>
+      <c r="BK1">
+        <f t="shared" si="1"/>
+        <v>2061</v>
+      </c>
+      <c r="BL1">
+        <f t="shared" si="1"/>
+        <v>2062</v>
+      </c>
+      <c r="BM1">
+        <f t="shared" si="1"/>
+        <v>2063</v>
+      </c>
+      <c r="BN1">
+        <f t="shared" si="1"/>
+        <v>2064</v>
+      </c>
+      <c r="BO1">
+        <f t="shared" si="1"/>
+        <v>2065</v>
+      </c>
+      <c r="BP1">
+        <f t="shared" si="1"/>
+        <v>2066</v>
+      </c>
+      <c r="BQ1">
+        <f t="shared" si="1"/>
+        <v>2067</v>
+      </c>
+      <c r="BR1">
+        <f t="shared" si="1"/>
+        <v>2068</v>
+      </c>
+      <c r="BS1">
+        <f t="shared" si="1"/>
+        <v>2069</v>
+      </c>
+      <c r="BT1">
+        <f t="shared" si="1"/>
+        <v>2070</v>
+      </c>
+      <c r="BU1">
+        <f t="shared" si="1"/>
+        <v>2071</v>
+      </c>
+      <c r="BV1">
+        <f t="shared" si="1"/>
+        <v>2072</v>
+      </c>
+      <c r="BW1">
+        <f t="shared" si="1"/>
+        <v>2073</v>
+      </c>
+      <c r="BX1">
+        <f t="shared" si="1"/>
+        <v>2074</v>
+      </c>
+      <c r="BY1">
+        <f t="shared" si="1"/>
+        <v>2075</v>
+      </c>
+      <c r="BZ1">
+        <f t="shared" si="1"/>
+        <v>2076</v>
+      </c>
+      <c r="CA1">
+        <f t="shared" si="1"/>
+        <v>2077</v>
+      </c>
+      <c r="CB1">
+        <f t="shared" si="1"/>
+        <v>2078</v>
+      </c>
+      <c r="CC1">
+        <f t="shared" si="1"/>
+        <v>2079</v>
+      </c>
+      <c r="CD1">
+        <f t="shared" si="1"/>
+        <v>2080</v>
+      </c>
+      <c r="CE1">
+        <f t="shared" si="1"/>
+        <v>2081</v>
+      </c>
+      <c r="CF1">
+        <f t="shared" si="1"/>
+        <v>2082</v>
+      </c>
+      <c r="CG1">
+        <f t="shared" si="1"/>
+        <v>2083</v>
+      </c>
+      <c r="CH1">
+        <f t="shared" si="1"/>
+        <v>2084</v>
+      </c>
+      <c r="CI1">
+        <f t="shared" si="1"/>
+        <v>2085</v>
+      </c>
+      <c r="CJ1">
+        <f t="shared" si="1"/>
+        <v>2086</v>
+      </c>
+      <c r="CK1">
+        <f t="shared" si="1"/>
+        <v>2087</v>
+      </c>
+      <c r="CL1">
+        <f t="shared" si="1"/>
+        <v>2088</v>
+      </c>
+      <c r="CM1">
+        <f t="shared" ref="CM1:CY1" si="2">CL1+1</f>
+        <v>2089</v>
+      </c>
+      <c r="CN1">
+        <f t="shared" si="2"/>
+        <v>2090</v>
+      </c>
+      <c r="CO1">
+        <f t="shared" si="2"/>
+        <v>2091</v>
+      </c>
+      <c r="CP1">
+        <f t="shared" si="2"/>
+        <v>2092</v>
+      </c>
+      <c r="CQ1">
+        <f t="shared" si="2"/>
+        <v>2093</v>
+      </c>
+      <c r="CR1">
+        <f t="shared" si="2"/>
+        <v>2094</v>
+      </c>
+      <c r="CS1">
+        <f t="shared" si="2"/>
+        <v>2095</v>
+      </c>
+      <c r="CT1">
+        <f t="shared" si="2"/>
+        <v>2096</v>
+      </c>
+      <c r="CU1">
+        <f t="shared" si="2"/>
+        <v>2097</v>
+      </c>
+      <c r="CV1">
+        <f t="shared" si="2"/>
+        <v>2098</v>
+      </c>
+      <c r="CW1">
+        <f t="shared" si="2"/>
+        <v>2099</v>
+      </c>
+      <c r="CX1">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="CY1">
+        <f t="shared" si="2"/>
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="2" spans="2:103" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="L2" s="99">
+        <v>40571</v>
+      </c>
+      <c r="M2" s="99">
+        <v>40940</v>
+      </c>
+      <c r="N2" s="99">
+        <v>41304</v>
+      </c>
+      <c r="O2" s="99">
+        <v>41670</v>
+      </c>
+      <c r="P2" s="99">
+        <v>42034</v>
+      </c>
+      <c r="Q2" s="99">
+        <v>42398</v>
+      </c>
+      <c r="R2" s="99">
+        <v>42776</v>
+      </c>
+      <c r="S2" s="99">
+        <v>43133</v>
+      </c>
+      <c r="T2" s="99">
+        <v>43497</v>
+      </c>
+      <c r="U2" s="99">
+        <v>43861</v>
+      </c>
+      <c r="V2" s="99">
+        <v>44230</v>
+      </c>
+      <c r="W2" s="99">
+        <v>44596</v>
+      </c>
+      <c r="X2" s="99">
+        <v>44960</v>
+      </c>
+      <c r="Y2" s="99">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="3" spans="2:103" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="L3" s="99">
+        <f>DATE(YEAR(M3)-1, MONTH(M3), DAY(M3))</f>
+        <v>40543</v>
+      </c>
+      <c r="M3" s="99">
+        <f t="shared" ref="M3:W3" si="3">DATE(YEAR(N3)-1, MONTH(N3), DAY(N3))</f>
+        <v>40908</v>
+      </c>
+      <c r="N3" s="99">
+        <f t="shared" si="3"/>
+        <v>41274</v>
+      </c>
+      <c r="O3" s="99">
+        <f t="shared" si="3"/>
+        <v>41639</v>
+      </c>
+      <c r="P3" s="99">
+        <f t="shared" si="3"/>
+        <v>42004</v>
+      </c>
+      <c r="Q3" s="99">
+        <f t="shared" si="3"/>
+        <v>42369</v>
+      </c>
+      <c r="R3" s="99">
+        <f t="shared" si="3"/>
+        <v>42735</v>
+      </c>
+      <c r="S3" s="99">
+        <f t="shared" si="3"/>
+        <v>43100</v>
+      </c>
+      <c r="T3" s="99">
+        <f t="shared" si="3"/>
+        <v>43465</v>
+      </c>
+      <c r="U3" s="99">
+        <f t="shared" si="3"/>
+        <v>43830</v>
+      </c>
+      <c r="V3" s="99">
+        <f t="shared" si="3"/>
+        <v>44196</v>
+      </c>
+      <c r="W3" s="99">
+        <f t="shared" si="3"/>
+        <v>44561</v>
+      </c>
+      <c r="X3" s="99">
+        <f>DATE(YEAR(Y3)-1, MONTH(Y3), DAY(Y3))</f>
+        <v>44926</v>
+      </c>
+      <c r="Y3" s="99">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="6" spans="2:103" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="L7" s="7">
+        <v>18707</v>
+      </c>
+      <c r="M7" s="7">
+        <v>26705</v>
+      </c>
+      <c r="N7" s="7">
+        <v>34813</v>
+      </c>
+      <c r="O7" s="7">
+        <v>41410</v>
+      </c>
+      <c r="P7" s="7">
+        <v>50834</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>63708</v>
+      </c>
+      <c r="R7" s="7">
+        <v>79785</v>
+      </c>
+      <c r="S7" s="7">
+        <v>106110</v>
+      </c>
+      <c r="T7" s="7">
+        <v>141366</v>
+      </c>
+      <c r="U7" s="7">
+        <v>170773</v>
+      </c>
+      <c r="V7" s="7">
+        <v>236282</v>
+      </c>
+      <c r="W7" s="7">
+        <v>279833</v>
+      </c>
+      <c r="X7" s="7">
+        <v>315880</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>352828</v>
+      </c>
+    </row>
+    <row r="8" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="7">
+        <v>955</v>
+      </c>
+      <c r="M8" s="7">
+        <v>933</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1592</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1166</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1292</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>2751</v>
+      </c>
+      <c r="R8" s="7">
+        <v>2361</v>
+      </c>
+      <c r="S8" s="7">
+        <v>2837</v>
+      </c>
+      <c r="T8" s="7">
+        <v>7267</v>
+      </c>
+      <c r="U8" s="7">
+        <v>7033</v>
+      </c>
+      <c r="V8" s="7">
+        <v>8651</v>
+      </c>
+      <c r="W8" s="7">
+        <v>7271</v>
+      </c>
+      <c r="X8" s="7">
+        <v>-2847</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>14877</v>
+      </c>
+    </row>
+    <row r="9" spans="2:103" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4" t="e">
+        <f>G8/G7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="4" t="e">
+        <f t="shared" ref="H9:W9" si="4">H8/H7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="4"/>
+        <v>5.1050408937830756E-2</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="4"/>
+        <v>3.4937277663358919E-2</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="4"/>
+        <v>4.5730043374601445E-2</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8157449891330597E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5416060117244364E-2</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="4"/>
+        <v>4.3181390092296101E-2</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="4"/>
+        <v>2.9592028576800149E-2</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="4"/>
+        <v>2.6736405616812741E-2</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="4"/>
+        <v>5.1405571353790869E-2</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1183325232911523E-2</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="4"/>
+        <v>3.6613030192735797E-2</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5983354357777676E-2</v>
+      </c>
+      <c r="X9" s="4">
+        <f>X8/X7</f>
+        <v>-9.0129162973280989E-3</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>Y8/Y7</f>
+        <v>4.2165020916707291E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:103" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="33" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="11" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="L11" s="7">
+        <v>15497</v>
+      </c>
+      <c r="M11" s="7">
+        <v>21372</v>
+      </c>
+      <c r="N11" s="7">
+        <v>26280</v>
+      </c>
+      <c r="O11" s="7">
+        <v>29934</v>
+      </c>
+      <c r="P11" s="7">
+        <v>33510</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>35418</v>
+      </c>
+      <c r="R11" s="7">
+        <v>43983</v>
+      </c>
+      <c r="S11" s="7">
+        <v>54297</v>
+      </c>
+      <c r="T11" s="7">
+        <v>65866</v>
+      </c>
+      <c r="U11" s="7">
+        <v>74723</v>
+      </c>
+      <c r="V11" s="7">
+        <v>104412</v>
+      </c>
+      <c r="W11" s="7">
+        <v>127787</v>
+      </c>
+      <c r="X11" s="7">
+        <v>118007</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>131200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="7">
+        <v>981</v>
+      </c>
+      <c r="M12" s="7">
+        <v>640</v>
+      </c>
+      <c r="N12" s="7">
+        <v>76</v>
+      </c>
+      <c r="O12" s="7">
+        <v>154</v>
+      </c>
+      <c r="P12" s="7">
+        <v>-144</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>-91</v>
+      </c>
+      <c r="R12" s="7">
+        <v>-1283</v>
+      </c>
+      <c r="S12" s="7">
+        <v>-3062</v>
+      </c>
+      <c r="T12" s="7">
+        <v>-2142</v>
+      </c>
+      <c r="U12" s="7">
+        <v>-1693</v>
+      </c>
+      <c r="V12" s="7">
+        <v>717</v>
+      </c>
+      <c r="W12" s="7">
+        <v>-924</v>
+      </c>
+      <c r="X12" s="7">
+        <v>-7746</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>-2656</v>
+      </c>
+    </row>
+    <row r="13" spans="2:103" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="4" t="e">
+        <f>G12/G11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="4" t="e">
+        <f t="shared" ref="H13:W13" si="5">H12/H11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="5"/>
+        <v>6.3302574691875849E-2</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="5"/>
+        <v>2.9945723376380309E-2</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="5"/>
+        <v>2.8919330289193302E-3</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="5"/>
+        <v>5.1446515667802496E-3</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="5"/>
+        <v>-4.2972247090420773E-3</v>
+      </c>
+      <c r="Q13" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.5693150375515274E-3</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.9170361275947524E-2</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="5"/>
+        <v>-5.6393539237895279E-2</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="5"/>
+        <v>-3.2520572070567515E-2</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.2657013235549965E-2</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="5"/>
+        <v>6.8670267785312031E-3</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="5"/>
+        <v>-7.2307824739605746E-3</v>
+      </c>
+      <c r="X13" s="4">
+        <f>X12/X11</f>
+        <v>-6.5640173887989692E-2</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>Y12/Y11</f>
+        <v>-2.0243902439024391E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:103" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>3108</v>
+      </c>
+      <c r="P15" s="7">
+        <v>4644</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>7880</v>
+      </c>
+      <c r="R15" s="7">
+        <v>12219</v>
+      </c>
+      <c r="S15" s="7">
+        <v>17459</v>
+      </c>
+      <c r="T15" s="7">
+        <v>25655</v>
+      </c>
+      <c r="U15" s="7">
+        <v>35026</v>
+      </c>
+      <c r="V15" s="7">
+        <v>45370</v>
+      </c>
+      <c r="W15" s="7">
+        <v>62202</v>
+      </c>
+      <c r="X15" s="7">
+        <v>80096</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>90757</v>
+      </c>
+    </row>
+    <row r="16" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>673</v>
+      </c>
+      <c r="P16" s="7">
+        <v>660</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>1863</v>
+      </c>
+      <c r="R16" s="7">
+        <v>3108</v>
+      </c>
+      <c r="S16" s="7">
+        <v>4331</v>
+      </c>
+      <c r="T16" s="7">
+        <v>7296</v>
+      </c>
+      <c r="U16" s="7">
+        <v>9201</v>
+      </c>
+      <c r="V16" s="7">
+        <v>13531</v>
+      </c>
+      <c r="W16" s="7">
+        <v>18532</v>
+      </c>
+      <c r="X16" s="7">
+        <v>22841</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>24631</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="4" t="e">
+        <f>G16/G15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="4" t="e">
+        <f t="shared" ref="H17:W17" si="6">H16/H15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="6"/>
+        <v>0.21653796653796653</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="6"/>
+        <v>0.1421188630490956</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="6"/>
+        <v>0.23642131979695433</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="6"/>
+        <v>0.25435796710041736</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="6"/>
+        <v>0.24806689959333295</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="6"/>
+        <v>0.28438900799064509</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="6"/>
+        <v>0.26269057271740992</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="6"/>
+        <v>0.29823672029975756</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="6"/>
+        <v>0.29793254236198191</v>
+      </c>
+      <c r="X17" s="4">
+        <f>X16/X15</f>
+        <v>0.28517029564522572</v>
+      </c>
+      <c r="Y17" s="4">
+        <f>Y16/Y15</f>
+        <v>0.27139504390845887</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="33" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="4" t="e">
+        <f>G7/G42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="4" t="e">
+        <f t="shared" ref="H19:X19" si="7">H7/H42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.54692433633493154</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.55546311125902204</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.56983615144124533</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.55619728146994041</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.57124556119926284</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.59536848401024245</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.58671049438549272</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.59657270079722935</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.6070154194952917</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.60876865272598946</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.61202805752414102</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.59561493501794294</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="7"/>
+        <v>0.61457285552245888</v>
+      </c>
+      <c r="Y19" s="4">
+        <f>Y7/Y42</f>
+        <v>0.61384343711126765</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G20" s="4" t="e">
+        <f>G11/G42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="4" t="e">
+        <f t="shared" ref="H20:X20" si="8">H11/H42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.45307566366506841</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.44453688874097802</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.43016384855875467</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.40205770160640414</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.37656762709578817</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.33099078556342637</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.32343532837697719</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.30526913519166116</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.28282385878129734</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.26637126499882363</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.27045256744995649</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.27199024311334929</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.22959319666214642</v>
+      </c>
+      <c r="Y20" s="4">
+        <f>Y11/Y42</f>
+        <v>0.22825926215889419</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="4" t="e">
+        <f>G15/G42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="4" t="e">
+        <f t="shared" ref="H21:X21" si="9">H15/H42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="9"/>
+        <v>4.1745016923655509E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="9"/>
+        <v>5.2186811704948981E-2</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="9"/>
+        <v>7.3640730426331236E-2</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="9"/>
+        <v>8.9854177237530058E-2</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="9"/>
+        <v>9.8158164011109481E-2</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="9"/>
+        <v>0.11016072172341093</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="9"/>
+        <v>0.12486008227518697</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="9"/>
+        <v>0.11751937502590244</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="9"/>
+        <v>0.13239482186870771</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="9"/>
+        <v>0.15583394781539467</v>
+      </c>
+      <c r="Y21" s="4">
+        <f>Y15/Y42</f>
+        <v>0.15789730072983812</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="33" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="7">
+        <v>18363</v>
+      </c>
+      <c r="M24" s="7">
+        <v>28712</v>
+      </c>
+      <c r="N24" s="7">
+        <v>38628</v>
+      </c>
+      <c r="O24" s="7">
+        <v>48802</v>
+      </c>
+      <c r="P24" s="7">
+        <v>60886</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>75597</v>
+      </c>
+      <c r="R24" s="7">
+        <v>91431</v>
+      </c>
+      <c r="S24" s="7">
+        <v>108354</v>
+      </c>
+      <c r="T24" s="7">
+        <v>122987</v>
+      </c>
+      <c r="U24" s="7">
+        <v>141247</v>
+      </c>
+      <c r="V24" s="7">
+        <v>197346</v>
+      </c>
+      <c r="W24" s="7">
+        <v>222075</v>
+      </c>
+      <c r="X24" s="7">
+        <v>220004</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>231872</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="7">
+        <v>5798</v>
+      </c>
+      <c r="T25" s="7">
+        <v>17224</v>
+      </c>
+      <c r="U25" s="7">
+        <v>17192</v>
+      </c>
+      <c r="V25" s="7">
+        <v>16227</v>
+      </c>
+      <c r="W25" s="7">
+        <v>17075</v>
+      </c>
+      <c r="X25" s="7">
+        <v>18963</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>20030</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="7" t="s">
+        <v>1928</v>
+      </c>
+      <c r="L26" s="7">
+        <v>14888</v>
+      </c>
+      <c r="M26" s="7">
+        <v>17779</v>
+      </c>
+      <c r="N26" s="7">
+        <v>19942</v>
+      </c>
+      <c r="O26" s="7">
+        <v>21716</v>
+      </c>
+      <c r="P26" s="7">
+        <v>22505</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>22509</v>
+      </c>
+      <c r="R26" s="7">
+        <v>22993</v>
+      </c>
+      <c r="S26" s="7">
+        <v>31881</v>
+      </c>
+      <c r="T26" s="7">
+        <v>42745</v>
+      </c>
+      <c r="U26" s="7">
+        <v>53762</v>
+      </c>
+      <c r="V26" s="7">
+        <v>80461</v>
+      </c>
+      <c r="W26" s="7">
+        <v>103366</v>
+      </c>
+      <c r="X26" s="7">
+        <v>117716</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>140053</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <v>6394</v>
+      </c>
+      <c r="S27" s="7">
+        <v>9721</v>
+      </c>
+      <c r="T27" s="7">
+        <v>14168</v>
+      </c>
+      <c r="U27" s="7">
+        <v>19210</v>
+      </c>
+      <c r="V27" s="7">
+        <v>25207</v>
+      </c>
+      <c r="W27" s="7">
+        <v>31768</v>
+      </c>
+      <c r="X27" s="7">
+        <v>37739</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>46906</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0</v>
+      </c>
+      <c r="U28" s="7">
+        <v>12625</v>
+      </c>
+      <c r="V28" s="7">
+        <v>19773</v>
+      </c>
+      <c r="W28" s="7">
+        <v>31160</v>
+      </c>
+      <c r="X28" s="7">
+        <v>35218</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>40209</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>3108</v>
+      </c>
+      <c r="P29" s="7">
+        <v>4644</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>7880</v>
+      </c>
+      <c r="R29" s="7">
+        <v>12219</v>
+      </c>
+      <c r="S29" s="7">
+        <v>17459</v>
+      </c>
+      <c r="T29" s="7">
+        <v>25655</v>
+      </c>
+      <c r="U29" s="7">
+        <v>35026</v>
+      </c>
+      <c r="V29" s="7">
+        <v>45370</v>
+      </c>
+      <c r="W29" s="7">
+        <v>62202</v>
+      </c>
+      <c r="X29" s="7">
+        <v>80096</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>90757</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="13" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L30" s="13">
+        <v>953</v>
+      </c>
+      <c r="M30" s="13">
+        <v>1586</v>
+      </c>
+      <c r="N30" s="13">
+        <v>2523</v>
+      </c>
+      <c r="O30" s="13">
+        <v>826</v>
+      </c>
+      <c r="P30" s="13">
+        <v>953</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>1020</v>
+      </c>
+      <c r="R30" s="13">
+        <v>2950</v>
+      </c>
+      <c r="S30" s="13">
+        <v>4653</v>
+      </c>
+      <c r="T30" s="13">
+        <v>10108</v>
+      </c>
+      <c r="U30" s="13">
+        <v>1460</v>
+      </c>
+      <c r="V30" s="13">
+        <v>1680</v>
+      </c>
+      <c r="W30" s="13">
+        <v>2176</v>
+      </c>
+      <c r="X30" s="13">
+        <v>4247</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="12" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G31" s="12">
+        <f>SUM(G24:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" ref="H31:X31" si="10">SUM(H24:H30)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="10"/>
+        <v>34204</v>
+      </c>
+      <c r="M31" s="12">
+        <f t="shared" si="10"/>
+        <v>48077</v>
+      </c>
+      <c r="N31" s="12">
+        <f t="shared" si="10"/>
+        <v>61093</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="10"/>
+        <v>74452</v>
+      </c>
+      <c r="P31" s="12">
+        <f t="shared" si="10"/>
+        <v>88988</v>
+      </c>
+      <c r="Q31" s="12">
+        <f t="shared" si="10"/>
+        <v>107006</v>
+      </c>
+      <c r="R31" s="12">
+        <f t="shared" si="10"/>
+        <v>135987</v>
+      </c>
+      <c r="S31" s="12">
+        <f t="shared" si="10"/>
+        <v>177866</v>
+      </c>
+      <c r="T31" s="12">
+        <f t="shared" si="10"/>
+        <v>232887</v>
+      </c>
+      <c r="U31" s="12">
+        <f t="shared" si="10"/>
+        <v>280522</v>
+      </c>
+      <c r="V31" s="12">
+        <f t="shared" si="10"/>
+        <v>386064</v>
+      </c>
+      <c r="W31" s="12">
+        <f t="shared" si="10"/>
+        <v>469822</v>
+      </c>
+      <c r="X31" s="12">
+        <f t="shared" si="10"/>
+        <v>513983</v>
+      </c>
+      <c r="Y31" s="12">
+        <f>SUM(Y24:Y30)</f>
+        <v>574785</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B32" s="101" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="33" spans="2:103" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="4" t="e">
+        <f t="shared" ref="G33:G39" si="11">G24/G$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="4" t="e">
+        <f t="shared" ref="H33:Y33" si="12">H24/H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.5368670330955444</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.59720864446616884</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.63228193082677231</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.65548272712620215</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.68420461185777859</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.70647440330448763</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.67235103355467807</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.60918893998853074</v>
+      </c>
+      <c r="T33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.52809731758320555</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.50351487583861521</v>
+      </c>
+      <c r="V33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.51117431306726346</v>
+      </c>
+      <c r="W33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.47267901460553147</v>
+      </c>
+      <c r="X33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.42803750318590306</v>
+      </c>
+      <c r="Y33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.40340649112276766</v>
+      </c>
+    </row>
+    <row r="34" spans="2:103" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="4" t="e">
+        <f t="shared" ref="H34:Y34" si="13">H25/H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" si="13"/>
+        <v>3.2597573454173363E-2</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="13"/>
+        <v>7.3958615122355478E-2</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" si="13"/>
+        <v>6.1285745859504782E-2</v>
+      </c>
+      <c r="V34" s="4">
+        <f t="shared" si="13"/>
+        <v>4.2031891085415891E-2</v>
+      </c>
+      <c r="W34" s="4">
+        <f t="shared" si="13"/>
+        <v>3.6343551387546774E-2</v>
+      </c>
+      <c r="X34" s="4">
+        <f t="shared" si="13"/>
+        <v>3.68942163456768E-2</v>
+      </c>
+      <c r="Y34" s="4">
+        <f t="shared" si="13"/>
+        <v>3.4847812660386057E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:103" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="4" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G35" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="4" t="e">
+        <f t="shared" ref="H35:Y35" si="14">H26/H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.4352707285697579</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.36980260831582668</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.32642037549310066</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.29167785956052222</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.25289926731694162</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.21035269050333627</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.16908233875296905</v>
+      </c>
+      <c r="S35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.17924167631812712</v>
+      </c>
+      <c r="T35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.18354395049959851</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.19164985277447044</v>
+      </c>
+      <c r="V35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.20841363090057607</v>
+      </c>
+      <c r="W35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.22001098288287904</v>
+      </c>
+      <c r="X35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.22902703007687025</v>
+      </c>
+      <c r="Y35" s="4">
+        <f t="shared" si="14"/>
+        <v>0.24366154301173482</v>
+      </c>
+    </row>
+    <row r="36" spans="2:103" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="4" t="s">
+        <v>1929</v>
+      </c>
+      <c r="G36" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="4" t="e">
+        <f t="shared" ref="H36:Y36" si="15">H27/H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="15"/>
+        <v>4.7019200364740749E-2</v>
+      </c>
+      <c r="S36" s="4">
+        <f t="shared" si="15"/>
+        <v>5.465350319903748E-2</v>
+      </c>
+      <c r="T36" s="4">
+        <f t="shared" si="15"/>
+        <v>6.0836371287362544E-2</v>
+      </c>
+      <c r="U36" s="4">
+        <f t="shared" si="15"/>
+        <v>6.8479477545433154E-2</v>
+      </c>
+      <c r="V36" s="4">
+        <f t="shared" si="15"/>
+        <v>6.5292283144763569E-2</v>
+      </c>
+      <c r="W36" s="4">
+        <f t="shared" si="15"/>
+        <v>6.7617097539067986E-2</v>
+      </c>
+      <c r="X36" s="4">
+        <f t="shared" si="15"/>
+        <v>7.3424607428650368E-2</v>
+      </c>
+      <c r="Y36" s="4">
+        <f t="shared" si="15"/>
+        <v>8.1606165783727827E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:103" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="4" t="e">
+        <f t="shared" ref="H37:Y37" si="16">H28/H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" si="16"/>
+        <v>4.5005382822024653E-2</v>
+      </c>
+      <c r="V37" s="4">
+        <f t="shared" si="16"/>
+        <v>5.1216896680343155E-2</v>
+      </c>
+      <c r="W37" s="4">
+        <f t="shared" si="16"/>
+        <v>6.632299040913367E-2</v>
+      </c>
+      <c r="X37" s="4">
+        <f t="shared" si="16"/>
+        <v>6.8519775945897046E-2</v>
+      </c>
+      <c r="Y37" s="4">
+        <f t="shared" si="16"/>
+        <v>6.9954852684047081E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:103" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="4" t="e">
+        <f t="shared" ref="H38:Y38" si="17">H29/H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="17"/>
+        <v>4.1745016923655509E-2</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="17"/>
+        <v>5.2186811704948981E-2</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="17"/>
+        <v>7.3640730426331236E-2</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="17"/>
+        <v>8.9854177237530058E-2</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" si="17"/>
+        <v>9.8158164011109481E-2</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="17"/>
+        <v>0.11016072172341093</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="17"/>
+        <v>0.12486008227518697</v>
+      </c>
+      <c r="V38" s="4">
+        <f t="shared" si="17"/>
+        <v>0.11751937502590244</v>
+      </c>
+      <c r="W38" s="4">
+        <f t="shared" si="17"/>
+        <v>0.13239482186870771</v>
+      </c>
+      <c r="X38" s="4">
+        <f t="shared" si="17"/>
+        <v>0.15583394781539467</v>
+      </c>
+      <c r="Y38" s="4">
+        <f t="shared" si="17"/>
+        <v>0.15789730072983812</v>
+      </c>
+    </row>
+    <row r="39" spans="2:103" s="76" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="76" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G39" s="76" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="76" t="e">
+        <f t="shared" ref="H39:Y39" si="18">H30/H$31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="76" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="76" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="76" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="76">
+        <f t="shared" si="18"/>
+        <v>2.7862238334697698E-2</v>
+      </c>
+      <c r="M39" s="76">
+        <f t="shared" si="18"/>
+        <v>3.2988747218004454E-2</v>
+      </c>
+      <c r="N39" s="76">
+        <f t="shared" si="18"/>
+        <v>4.1297693680127021E-2</v>
+      </c>
+      <c r="O39" s="76">
+        <f t="shared" si="18"/>
+        <v>1.1094396389620158E-2</v>
+      </c>
+      <c r="P39" s="76">
+        <f t="shared" si="18"/>
+        <v>1.0709309120330831E-2</v>
+      </c>
+      <c r="Q39" s="76">
+        <f t="shared" si="18"/>
+        <v>9.5321757658449052E-3</v>
+      </c>
+      <c r="R39" s="76">
+        <f t="shared" si="18"/>
+        <v>2.169325009008214E-2</v>
+      </c>
+      <c r="S39" s="76">
+        <f t="shared" si="18"/>
+        <v>2.6160143029021848E-2</v>
+      </c>
+      <c r="T39" s="76">
+        <f t="shared" si="18"/>
+        <v>4.3403023784066949E-2</v>
+      </c>
+      <c r="U39" s="76">
+        <f t="shared" si="18"/>
+        <v>5.204582884764831E-3</v>
+      </c>
+      <c r="V39" s="76">
+        <f t="shared" si="18"/>
+        <v>4.3516100957354219E-3</v>
+      </c>
+      <c r="W39" s="76">
+        <f t="shared" si="18"/>
+        <v>4.6315413071333399E-3</v>
+      </c>
+      <c r="X39" s="76">
+        <f t="shared" si="18"/>
+        <v>8.2629192016078351E-3</v>
+      </c>
+      <c r="Y39" s="76">
+        <f t="shared" si="18"/>
+        <v>8.6258340074984556E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:103" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G40" s="4" t="e">
+        <f>SUM(G33:G39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="4" t="e">
+        <f t="shared" ref="H40:Y40" si="19">SUM(H33:H39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="4" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="4" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="4" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="S40" s="4">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="19"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="V40" s="4">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X40" s="4">
+        <f t="shared" si="19"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Y40" s="4">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:103" s="56" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="56" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="42" spans="2:103" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="L42" s="12">
+        <v>34204</v>
+      </c>
+      <c r="M42" s="12">
+        <v>48077</v>
+      </c>
+      <c r="N42" s="12">
+        <v>61093</v>
+      </c>
+      <c r="O42" s="12">
+        <v>74452</v>
+      </c>
+      <c r="P42" s="12">
+        <v>88988</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>107006</v>
+      </c>
+      <c r="R42" s="12">
+        <v>135987</v>
+      </c>
+      <c r="S42" s="12">
+        <v>177866</v>
+      </c>
+      <c r="T42" s="12">
+        <v>232887</v>
+      </c>
+      <c r="U42" s="12">
+        <v>280522</v>
+      </c>
+      <c r="V42" s="12">
+        <v>386064</v>
+      </c>
+      <c r="W42" s="12">
+        <v>469822</v>
+      </c>
+      <c r="X42" s="12">
+        <v>513983</v>
+      </c>
+      <c r="Y42" s="12">
+        <v>574785</v>
+      </c>
+      <c r="Z42" s="12">
+        <f>Y42*(1+Z69)</f>
+        <v>666750.6</v>
+      </c>
+      <c r="AA42" s="12">
+        <f t="shared" ref="AA42:AF42" si="20">Z42*(1+AA69)</f>
+        <v>773430.69599999988</v>
+      </c>
+      <c r="AB42" s="12">
+        <f t="shared" si="20"/>
+        <v>897179.60735999979</v>
+      </c>
+      <c r="AC42" s="12">
+        <f t="shared" si="20"/>
+        <v>1040728.3445375997</v>
+      </c>
+      <c r="AD42" s="12">
+        <f t="shared" si="20"/>
+        <v>1207244.8796636155</v>
+      </c>
+      <c r="AE42" s="12">
+        <f t="shared" si="20"/>
+        <v>1400404.0604097939</v>
+      </c>
+      <c r="AF42" s="12">
+        <f t="shared" si="20"/>
+        <v>1624468.7100753607</v>
+      </c>
+      <c r="AG42" s="12">
+        <f>AF42*(1+$AJ$82)</f>
+        <v>1640713.3971761144</v>
+      </c>
+      <c r="AH42" s="12">
+        <f t="shared" ref="AH42:CS42" si="21">AG42*(1+$AJ$82)</f>
+        <v>1657120.5311478756</v>
+      </c>
+      <c r="AI42" s="12">
+        <f t="shared" si="21"/>
+        <v>1673691.7364593544</v>
+      </c>
+      <c r="AJ42" s="12">
+        <f t="shared" si="21"/>
+        <v>1690428.653823948</v>
+      </c>
+      <c r="AK42" s="12">
+        <f t="shared" si="21"/>
+        <v>1707332.9403621876</v>
+      </c>
+      <c r="AL42" s="12">
+        <f t="shared" si="21"/>
+        <v>1724406.2697658094</v>
+      </c>
+      <c r="AM42" s="12">
+        <f t="shared" si="21"/>
+        <v>1741650.3324634675</v>
+      </c>
+      <c r="AN42" s="12">
+        <f t="shared" si="21"/>
+        <v>1759066.8357881021</v>
+      </c>
+      <c r="AO42" s="12">
+        <f t="shared" si="21"/>
+        <v>1776657.5041459831</v>
+      </c>
+      <c r="AP42" s="12">
+        <f t="shared" si="21"/>
+        <v>1794424.079187443</v>
+      </c>
+      <c r="AQ42" s="12">
+        <f t="shared" si="21"/>
+        <v>1812368.3199793175</v>
+      </c>
+      <c r="AR42" s="12">
+        <f t="shared" si="21"/>
+        <v>1830492.0031791106</v>
+      </c>
+      <c r="AS42" s="12">
+        <f t="shared" si="21"/>
+        <v>1848796.9232109017</v>
+      </c>
+      <c r="AT42" s="12">
+        <f t="shared" si="21"/>
+        <v>1867284.8924430108</v>
+      </c>
+      <c r="AU42" s="12">
+        <f t="shared" si="21"/>
+        <v>1885957.7413674409</v>
+      </c>
+      <c r="AV42" s="12">
+        <f t="shared" si="21"/>
+        <v>1904817.3187811153</v>
+      </c>
+      <c r="AW42" s="12">
+        <f t="shared" si="21"/>
+        <v>1923865.4919689265</v>
+      </c>
+      <c r="AX42" s="12">
+        <f t="shared" si="21"/>
+        <v>1943104.1468886158</v>
+      </c>
+      <c r="AY42" s="12">
+        <f t="shared" si="21"/>
+        <v>1962535.188357502</v>
+      </c>
+      <c r="AZ42" s="12">
+        <f t="shared" si="21"/>
+        <v>1982160.5402410771</v>
+      </c>
+      <c r="BA42" s="12">
+        <f t="shared" si="21"/>
+        <v>2001982.1456434878</v>
+      </c>
+      <c r="BB42" s="12">
+        <f t="shared" si="21"/>
+        <v>2022001.9670999227</v>
+      </c>
+      <c r="BC42" s="12">
+        <f t="shared" si="21"/>
+        <v>2042221.9867709219</v>
+      </c>
+      <c r="BD42" s="12">
+        <f t="shared" si="21"/>
+        <v>2062644.2066386312</v>
+      </c>
+      <c r="BE42" s="12">
+        <f t="shared" si="21"/>
+        <v>2083270.6487050175</v>
+      </c>
+      <c r="BF42" s="12">
+        <f t="shared" si="21"/>
+        <v>2104103.3551920676</v>
+      </c>
+      <c r="BG42" s="12">
+        <f t="shared" si="21"/>
+        <v>2125144.3887439882</v>
+      </c>
+      <c r="BH42" s="12">
+        <f t="shared" si="21"/>
+        <v>2146395.8326314283</v>
+      </c>
+      <c r="BI42" s="12">
+        <f t="shared" si="21"/>
+        <v>2167859.7909577424</v>
+      </c>
+      <c r="BJ42" s="12">
+        <f t="shared" si="21"/>
+        <v>2189538.38886732</v>
+      </c>
+      <c r="BK42" s="12">
+        <f t="shared" si="21"/>
+        <v>2211433.7727559931</v>
+      </c>
+      <c r="BL42" s="12">
+        <f t="shared" si="21"/>
+        <v>2233548.1104835528</v>
+      </c>
+      <c r="BM42" s="12">
+        <f t="shared" si="21"/>
+        <v>2255883.5915883882</v>
+      </c>
+      <c r="BN42" s="12">
+        <f t="shared" si="21"/>
+        <v>2278442.4275042722</v>
+      </c>
+      <c r="BO42" s="12">
+        <f t="shared" si="21"/>
+        <v>2301226.8517793152</v>
+      </c>
+      <c r="BP42" s="12">
+        <f t="shared" si="21"/>
+        <v>2324239.1202971083</v>
+      </c>
+      <c r="BQ42" s="12">
+        <f t="shared" si="21"/>
+        <v>2347481.5115000792</v>
+      </c>
+      <c r="BR42" s="12">
+        <f t="shared" si="21"/>
+        <v>2370956.3266150798</v>
+      </c>
+      <c r="BS42" s="12">
+        <f t="shared" si="21"/>
+        <v>2394665.8898812304</v>
+      </c>
+      <c r="BT42" s="12">
+        <f t="shared" si="21"/>
+        <v>2418612.5487800427</v>
+      </c>
+      <c r="BU42" s="12">
+        <f t="shared" si="21"/>
+        <v>2442798.6742678429</v>
+      </c>
+      <c r="BV42" s="12">
+        <f t="shared" si="21"/>
+        <v>2467226.6610105215</v>
+      </c>
+      <c r="BW42" s="12">
+        <f t="shared" si="21"/>
+        <v>2491898.9276206265</v>
+      </c>
+      <c r="BX42" s="12">
+        <f t="shared" si="21"/>
+        <v>2516817.9168968326</v>
+      </c>
+      <c r="BY42" s="12">
+        <f t="shared" si="21"/>
+        <v>2541986.0960658011</v>
+      </c>
+      <c r="BZ42" s="12">
+        <f t="shared" si="21"/>
+        <v>2567405.9570264593</v>
+      </c>
+      <c r="CA42" s="12">
+        <f t="shared" si="21"/>
+        <v>2593080.0165967238</v>
+      </c>
+      <c r="CB42" s="12">
+        <f t="shared" si="21"/>
+        <v>2619010.8167626909</v>
+      </c>
+      <c r="CC42" s="12">
+        <f t="shared" si="21"/>
+        <v>2645200.9249303178</v>
+      </c>
+      <c r="CD42" s="12">
+        <f t="shared" si="21"/>
+        <v>2671652.9341796208</v>
+      </c>
+      <c r="CE42" s="12">
+        <f t="shared" si="21"/>
+        <v>2698369.4635214172</v>
+      </c>
+      <c r="CF42" s="12">
+        <f t="shared" si="21"/>
+        <v>2725353.1581566315</v>
+      </c>
+      <c r="CG42" s="12">
+        <f t="shared" si="21"/>
+        <v>2752606.6897381977</v>
+      </c>
+      <c r="CH42" s="12">
+        <f t="shared" si="21"/>
+        <v>2780132.7566355797</v>
+      </c>
+      <c r="CI42" s="12">
+        <f t="shared" si="21"/>
+        <v>2807934.0842019357</v>
+      </c>
+      <c r="CJ42" s="12">
+        <f t="shared" si="21"/>
+        <v>2836013.425043955</v>
+      </c>
+      <c r="CK42" s="12">
+        <f t="shared" si="21"/>
+        <v>2864373.5592943947</v>
+      </c>
+      <c r="CL42" s="12">
+        <f t="shared" si="21"/>
+        <v>2893017.2948873388</v>
+      </c>
+      <c r="CM42" s="12">
+        <f t="shared" si="21"/>
+        <v>2921947.4678362124</v>
+      </c>
+      <c r="CN42" s="12">
+        <f t="shared" si="21"/>
+        <v>2951166.9425145746</v>
+      </c>
+      <c r="CO42" s="12">
+        <f t="shared" si="21"/>
+        <v>2980678.6119397203</v>
+      </c>
+      <c r="CP42" s="12">
+        <f t="shared" si="21"/>
+        <v>3010485.3980591176</v>
+      </c>
+      <c r="CQ42" s="12">
+        <f t="shared" si="21"/>
+        <v>3040590.2520397087</v>
+      </c>
+      <c r="CR42" s="12">
+        <f t="shared" si="21"/>
+        <v>3070996.1545601059</v>
+      </c>
+      <c r="CS42" s="12">
+        <f t="shared" si="21"/>
+        <v>3101706.1161057069</v>
+      </c>
+      <c r="CT42" s="12">
+        <f t="shared" ref="CT42:CY42" si="22">CS42*(1+$AJ$82)</f>
+        <v>3132723.177266764</v>
+      </c>
+      <c r="CU42" s="12">
+        <f t="shared" si="22"/>
+        <v>3164050.4090394317</v>
+      </c>
+      <c r="CV42" s="12">
+        <f t="shared" si="22"/>
+        <v>3195690.9131298261</v>
+      </c>
+      <c r="CW42" s="12">
+        <f t="shared" si="22"/>
+        <v>3227647.8222611244</v>
+      </c>
+      <c r="CX42" s="12">
+        <f t="shared" si="22"/>
+        <v>3259924.3004837357</v>
+      </c>
+      <c r="CY42" s="12">
+        <f t="shared" si="22"/>
+        <v>3292523.5434885733</v>
+      </c>
+    </row>
+    <row r="43" spans="2:103" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="13" t="s">
+        <v>1912</v>
+      </c>
+      <c r="L43" s="13">
+        <v>26561</v>
+      </c>
+      <c r="M43" s="13">
+        <v>37288</v>
+      </c>
+      <c r="N43" s="13">
+        <v>45971</v>
+      </c>
+      <c r="O43" s="13">
+        <v>54181</v>
+      </c>
+      <c r="P43" s="13">
+        <v>62752</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>71651</v>
+      </c>
+      <c r="R43" s="13">
+        <v>88265</v>
+      </c>
+      <c r="S43" s="13">
+        <v>111934</v>
+      </c>
+      <c r="T43" s="13">
+        <v>139156</v>
+      </c>
+      <c r="U43" s="13">
+        <v>165536</v>
+      </c>
+      <c r="V43" s="13">
+        <v>233307</v>
+      </c>
+      <c r="W43" s="13">
+        <v>272344</v>
+      </c>
+      <c r="X43" s="13">
+        <v>288831</v>
+      </c>
+      <c r="Y43" s="13">
+        <v>304739</v>
+      </c>
+    </row>
+    <row r="44" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G44" s="7">
+        <f>G42-G43</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" ref="H44:X44" si="23">H42-H43</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <f t="shared" si="23"/>
+        <v>7643</v>
+      </c>
+      <c r="M44" s="7">
+        <f t="shared" si="23"/>
+        <v>10789</v>
+      </c>
+      <c r="N44" s="7">
+        <f t="shared" si="23"/>
+        <v>15122</v>
+      </c>
+      <c r="O44" s="7">
+        <f t="shared" si="23"/>
+        <v>20271</v>
+      </c>
+      <c r="P44" s="7">
+        <f t="shared" si="23"/>
+        <v>26236</v>
+      </c>
+      <c r="Q44" s="7">
+        <f t="shared" si="23"/>
+        <v>35355</v>
+      </c>
+      <c r="R44" s="7">
+        <f t="shared" si="23"/>
+        <v>47722</v>
+      </c>
+      <c r="S44" s="7">
+        <f t="shared" si="23"/>
+        <v>65932</v>
+      </c>
+      <c r="T44" s="7">
+        <f t="shared" si="23"/>
+        <v>93731</v>
+      </c>
+      <c r="U44" s="7">
+        <f t="shared" si="23"/>
+        <v>114986</v>
+      </c>
+      <c r="V44" s="7">
+        <f t="shared" si="23"/>
+        <v>152757</v>
+      </c>
+      <c r="W44" s="7">
+        <f t="shared" si="23"/>
+        <v>197478</v>
+      </c>
+      <c r="X44" s="7">
+        <f t="shared" si="23"/>
+        <v>225152</v>
+      </c>
+      <c r="Y44" s="7">
+        <f>Y42-Y43</f>
+        <v>270046</v>
+      </c>
+      <c r="Z44" s="7">
+        <f>Z42*Z72</f>
+        <v>246697.72199999998</v>
+      </c>
+      <c r="AA44" s="7">
+        <f t="shared" ref="AA44:AF44" si="24">AA42*AA72</f>
+        <v>286169.35751999996</v>
+      </c>
+      <c r="AB44" s="7">
+        <f t="shared" si="24"/>
+        <v>331956.45472319995</v>
+      </c>
+      <c r="AC44" s="7">
+        <f t="shared" si="24"/>
+        <v>385069.48747891188</v>
+      </c>
+      <c r="AD44" s="7">
+        <f t="shared" si="24"/>
+        <v>446680.60547553771</v>
+      </c>
+      <c r="AE44" s="7">
+        <f t="shared" si="24"/>
+        <v>518149.50235162373</v>
+      </c>
+      <c r="AF44" s="7">
+        <f t="shared" si="24"/>
+        <v>601053.42272788344</v>
+      </c>
+    </row>
+    <row r="45" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L45" s="7">
+        <v>2898</v>
+      </c>
+      <c r="M45" s="7">
+        <v>4576</v>
+      </c>
+      <c r="N45" s="7">
+        <v>6419</v>
+      </c>
+      <c r="O45" s="7">
+        <v>8585</v>
+      </c>
+      <c r="P45" s="7">
+        <v>10766</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>13410</v>
+      </c>
+      <c r="R45" s="7">
+        <v>17619</v>
+      </c>
+      <c r="S45" s="7">
+        <v>25249</v>
+      </c>
+      <c r="T45" s="7">
+        <v>34027</v>
+      </c>
+      <c r="U45" s="7">
+        <v>40232</v>
+      </c>
+      <c r="V45" s="7">
+        <v>58517</v>
+      </c>
+      <c r="W45" s="7">
+        <v>75111</v>
+      </c>
+      <c r="X45" s="7">
+        <v>84299</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>90619</v>
+      </c>
+      <c r="Z45" s="7">
+        <f>Z$42*Z76</f>
+        <v>86677.577999999994</v>
+      </c>
+      <c r="AA45" s="7">
+        <f t="shared" ref="AA45:AF45" si="25">AA$42*AA76</f>
+        <v>100545.99047999999</v>
+      </c>
+      <c r="AB45" s="7">
+        <f t="shared" si="25"/>
+        <v>116633.34895679998</v>
+      </c>
+      <c r="AC45" s="7">
+        <f t="shared" si="25"/>
+        <v>135294.68478988798</v>
+      </c>
+      <c r="AD45" s="7">
+        <f t="shared" si="25"/>
+        <v>156941.83435627003</v>
+      </c>
+      <c r="AE45" s="7">
+        <f t="shared" si="25"/>
+        <v>182052.5278532732</v>
+      </c>
+      <c r="AF45" s="7">
+        <f t="shared" si="25"/>
+        <v>211180.93230979689</v>
+      </c>
+    </row>
+    <row r="46" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="7" t="s">
+        <v>1913</v>
+      </c>
+      <c r="L46" s="7">
+        <v>1029</v>
+      </c>
+      <c r="M46" s="7">
+        <v>1630</v>
+      </c>
+      <c r="N46" s="7">
+        <v>2408</v>
+      </c>
+      <c r="O46" s="7">
+        <v>3133</v>
+      </c>
+      <c r="P46" s="7">
+        <v>4332</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>5254</v>
+      </c>
+      <c r="R46" s="7">
+        <v>7233</v>
+      </c>
+      <c r="S46" s="7">
+        <v>10069</v>
+      </c>
+      <c r="T46" s="7">
+        <v>13814</v>
+      </c>
+      <c r="U46" s="7">
+        <v>35931</v>
+      </c>
+      <c r="V46" s="7">
+        <v>42740</v>
+      </c>
+      <c r="W46" s="7">
+        <v>56052</v>
+      </c>
+      <c r="X46" s="7">
+        <v>73213</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>85622</v>
+      </c>
+      <c r="Z46" s="7">
+        <f>Z$42*Z77</f>
+        <v>53340.048000000003</v>
+      </c>
+      <c r="AA46" s="7">
+        <f t="shared" ref="AA46:AF46" si="26">AA$42*AA77</f>
+        <v>61874.455679999992</v>
+      </c>
+      <c r="AB46" s="7">
+        <f t="shared" si="26"/>
+        <v>71774.368588799989</v>
+      </c>
+      <c r="AC46" s="7">
+        <f t="shared" si="26"/>
+        <v>83258.267563007976</v>
+      </c>
+      <c r="AD46" s="7">
+        <f t="shared" si="26"/>
+        <v>96579.590373089246</v>
+      </c>
+      <c r="AE46" s="7">
+        <f t="shared" si="26"/>
+        <v>112032.32483278352</v>
+      </c>
+      <c r="AF46" s="7">
+        <f t="shared" si="26"/>
+        <v>129957.49680602887</v>
+      </c>
+    </row>
+    <row r="47" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="7" t="s">
+        <v>1914</v>
+      </c>
+      <c r="L47" s="7">
+        <v>1734</v>
+      </c>
+      <c r="M47" s="7">
+        <v>2909</v>
+      </c>
+      <c r="N47" s="7">
+        <v>4564</v>
+      </c>
+      <c r="O47" s="7">
+        <v>6565</v>
+      </c>
+      <c r="P47" s="7">
+        <v>9275</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>12540</v>
+      </c>
+      <c r="R47" s="7">
+        <v>16085</v>
+      </c>
+      <c r="S47" s="7">
+        <v>22620</v>
+      </c>
+      <c r="T47" s="7">
+        <v>28837</v>
+      </c>
+      <c r="U47" s="7">
+        <v>18878</v>
+      </c>
+      <c r="V47" s="7">
+        <v>22008</v>
+      </c>
+      <c r="W47" s="7">
+        <v>32551</v>
+      </c>
+      <c r="X47" s="7">
+        <v>42238</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>44370</v>
+      </c>
+      <c r="Z47" s="7">
+        <f>Z$42*Z78</f>
+        <v>60007.553999999996</v>
+      </c>
+      <c r="AA47" s="7">
+        <f t="shared" ref="AA47:AF47" si="27">AA$42*AA78</f>
+        <v>69608.762639999986</v>
+      </c>
+      <c r="AB47" s="7">
+        <f t="shared" si="27"/>
+        <v>80746.164662399984</v>
+      </c>
+      <c r="AC47" s="7">
+        <f t="shared" si="27"/>
+        <v>93665.551008383976</v>
+      </c>
+      <c r="AD47" s="7">
+        <f t="shared" si="27"/>
+        <v>108652.03916972539</v>
+      </c>
+      <c r="AE47" s="7">
+        <f t="shared" si="27"/>
+        <v>126036.36543688145</v>
+      </c>
+      <c r="AF47" s="7">
+        <f t="shared" si="27"/>
+        <v>146202.18390678245</v>
+      </c>
+    </row>
+    <row r="48" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="7" t="s">
+        <v>1915</v>
+      </c>
+      <c r="L48" s="7">
+        <v>470</v>
+      </c>
+      <c r="M48" s="7">
+        <v>658</v>
+      </c>
+      <c r="N48" s="7">
+        <v>896</v>
+      </c>
+      <c r="O48" s="7">
+        <v>1129</v>
+      </c>
+      <c r="P48" s="7">
+        <v>1552</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>1747</v>
+      </c>
+      <c r="R48" s="7">
+        <v>2432</v>
+      </c>
+      <c r="S48" s="7">
+        <v>3674</v>
+      </c>
+      <c r="T48" s="7">
+        <v>4336</v>
+      </c>
+      <c r="U48" s="7">
+        <v>5203</v>
+      </c>
+      <c r="V48" s="7">
+        <v>6668</v>
+      </c>
+      <c r="W48" s="7">
+        <v>8823</v>
+      </c>
+      <c r="X48" s="7">
+        <v>11891</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>11816</v>
+      </c>
+      <c r="Z48" s="7">
+        <f>Z$42*Z79</f>
+        <v>13335.012000000001</v>
+      </c>
+      <c r="AA48" s="7">
+        <f t="shared" ref="AA48:AF48" si="28">AA$42*AA79</f>
+        <v>15468.613919999998</v>
+      </c>
+      <c r="AB48" s="7">
+        <f t="shared" si="28"/>
+        <v>17943.592147199997</v>
+      </c>
+      <c r="AC48" s="7">
+        <f t="shared" si="28"/>
+        <v>20814.566890751994</v>
+      </c>
+      <c r="AD48" s="7">
+        <f t="shared" si="28"/>
+        <v>24144.897593272311</v>
+      </c>
+      <c r="AE48" s="7">
+        <f t="shared" si="28"/>
+        <v>28008.081208195879</v>
+      </c>
+      <c r="AF48" s="7">
+        <f t="shared" si="28"/>
+        <v>32489.374201507217</v>
+      </c>
+    </row>
+    <row r="49" spans="2:103" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="13" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L49" s="13">
+        <v>106</v>
+      </c>
+      <c r="M49" s="13">
+        <v>154</v>
+      </c>
+      <c r="N49" s="13">
+        <v>159</v>
+      </c>
+      <c r="O49" s="13">
+        <v>114</v>
+      </c>
+      <c r="P49" s="13">
+        <v>133</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>171</v>
+      </c>
+      <c r="R49" s="13">
+        <v>167</v>
+      </c>
+      <c r="S49" s="13">
+        <v>214</v>
+      </c>
+      <c r="T49" s="13">
+        <v>296</v>
+      </c>
+      <c r="U49" s="13">
+        <v>201</v>
+      </c>
+      <c r="V49" s="13">
+        <v>-75</v>
+      </c>
+      <c r="W49" s="13">
+        <v>62</v>
+      </c>
+      <c r="X49" s="13">
+        <v>1263</v>
+      </c>
+      <c r="Y49" s="13">
+        <v>767</v>
+      </c>
+      <c r="Z49" s="7">
+        <f>Z$42*Z80</f>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="7">
+        <f t="shared" ref="AA49:AF49" si="29">AA$42*AA80</f>
+        <v>0</v>
+      </c>
+      <c r="AB49" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:103" s="75" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="75" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G50" s="75">
+        <f>SUM(G45:G49)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="75">
+        <f t="shared" ref="H50:X50" si="30">SUM(H45:H49)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="75">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="75">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="75">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="75">
+        <f t="shared" si="30"/>
+        <v>6237</v>
+      </c>
+      <c r="M50" s="75">
+        <f t="shared" si="30"/>
+        <v>9927</v>
+      </c>
+      <c r="N50" s="75">
+        <f t="shared" si="30"/>
+        <v>14446</v>
+      </c>
+      <c r="O50" s="75">
+        <f t="shared" si="30"/>
+        <v>19526</v>
+      </c>
+      <c r="P50" s="75">
+        <f t="shared" si="30"/>
+        <v>26058</v>
+      </c>
+      <c r="Q50" s="75">
+        <f t="shared" si="30"/>
+        <v>33122</v>
+      </c>
+      <c r="R50" s="75">
+        <f t="shared" si="30"/>
+        <v>43536</v>
+      </c>
+      <c r="S50" s="75">
+        <f t="shared" si="30"/>
+        <v>61826</v>
+      </c>
+      <c r="T50" s="75">
+        <f t="shared" si="30"/>
+        <v>81310</v>
+      </c>
+      <c r="U50" s="75">
+        <f t="shared" si="30"/>
+        <v>100445</v>
+      </c>
+      <c r="V50" s="75">
+        <f t="shared" si="30"/>
+        <v>129858</v>
+      </c>
+      <c r="W50" s="75">
+        <f t="shared" si="30"/>
+        <v>172599</v>
+      </c>
+      <c r="X50" s="75">
+        <f t="shared" si="30"/>
+        <v>212904</v>
+      </c>
+      <c r="Y50" s="75">
+        <f>SUM(Y45:Y49)</f>
+        <v>233194</v>
+      </c>
+      <c r="Z50" s="75">
+        <f t="shared" ref="Z50:AF50" si="31">SUM(Z45:Z49)</f>
+        <v>213360.19199999998</v>
+      </c>
+      <c r="AA50" s="75">
+        <f t="shared" si="31"/>
+        <v>247497.82271999997</v>
+      </c>
+      <c r="AB50" s="75">
+        <f t="shared" si="31"/>
+        <v>287097.47435519996</v>
+      </c>
+      <c r="AC50" s="75">
+        <f t="shared" si="31"/>
+        <v>333033.07025203196</v>
+      </c>
+      <c r="AD50" s="75">
+        <f t="shared" si="31"/>
+        <v>386318.36149235698</v>
+      </c>
+      <c r="AE50" s="75">
+        <f t="shared" si="31"/>
+        <v>448129.29933113407</v>
+      </c>
+      <c r="AF50" s="75">
+        <f t="shared" si="31"/>
+        <v>519829.98722411541</v>
+      </c>
+    </row>
+    <row r="51" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="7">
+        <f>G44-G50</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" ref="H51:X51" si="32">H44-H50</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="7">
+        <f t="shared" si="32"/>
+        <v>1406</v>
+      </c>
+      <c r="M51" s="7">
+        <f t="shared" si="32"/>
+        <v>862</v>
+      </c>
+      <c r="N51" s="7">
+        <f t="shared" si="32"/>
+        <v>676</v>
+      </c>
+      <c r="O51" s="7">
+        <f t="shared" si="32"/>
+        <v>745</v>
+      </c>
+      <c r="P51" s="7">
+        <f t="shared" si="32"/>
+        <v>178</v>
+      </c>
+      <c r="Q51" s="7">
+        <f t="shared" si="32"/>
+        <v>2233</v>
+      </c>
+      <c r="R51" s="7">
+        <f t="shared" si="32"/>
+        <v>4186</v>
+      </c>
+      <c r="S51" s="7">
+        <f t="shared" si="32"/>
+        <v>4106</v>
+      </c>
+      <c r="T51" s="7">
+        <f t="shared" si="32"/>
+        <v>12421</v>
+      </c>
+      <c r="U51" s="7">
+        <f t="shared" si="32"/>
+        <v>14541</v>
+      </c>
+      <c r="V51" s="7">
+        <f t="shared" si="32"/>
+        <v>22899</v>
+      </c>
+      <c r="W51" s="7">
+        <f t="shared" si="32"/>
+        <v>24879</v>
+      </c>
+      <c r="X51" s="7">
+        <f t="shared" si="32"/>
+        <v>12248</v>
+      </c>
+      <c r="Y51" s="7">
+        <f>Y44-Y50</f>
+        <v>36852</v>
+      </c>
+      <c r="Z51" s="7">
+        <f t="shared" ref="Z51:AF51" si="33">Z44-Z50</f>
+        <v>33337.53</v>
+      </c>
+      <c r="AA51" s="7">
+        <f t="shared" si="33"/>
+        <v>38671.534799999994</v>
+      </c>
+      <c r="AB51" s="7">
+        <f t="shared" si="33"/>
+        <v>44858.98036799999</v>
+      </c>
+      <c r="AC51" s="7">
+        <f t="shared" si="33"/>
+        <v>52036.417226879916</v>
+      </c>
+      <c r="AD51" s="7">
+        <f t="shared" si="33"/>
+        <v>60362.243983180728</v>
+      </c>
+      <c r="AE51" s="7">
+        <f t="shared" si="33"/>
+        <v>70020.203020489658</v>
+      </c>
+      <c r="AF51" s="7">
+        <f t="shared" si="33"/>
+        <v>81223.435503768036</v>
+      </c>
+    </row>
+    <row r="52" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="L52" s="7">
+        <v>51</v>
+      </c>
+      <c r="M52" s="7">
+        <v>61</v>
+      </c>
+      <c r="N52" s="7">
+        <v>40</v>
+      </c>
+      <c r="O52" s="7">
+        <v>38</v>
+      </c>
+      <c r="P52" s="7">
+        <v>39</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>50</v>
+      </c>
+      <c r="R52" s="7">
+        <v>100</v>
+      </c>
+      <c r="S52" s="7">
+        <v>202</v>
+      </c>
+      <c r="T52" s="7">
+        <v>440</v>
+      </c>
+      <c r="U52" s="7">
+        <v>832</v>
+      </c>
+      <c r="V52" s="7">
+        <v>555</v>
+      </c>
+      <c r="W52" s="7">
+        <v>448</v>
+      </c>
+      <c r="X52" s="7">
+        <v>989</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>2949</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="7" t="s">
+        <v>1919</v>
+      </c>
+      <c r="L53" s="7">
+        <v>-39</v>
+      </c>
+      <c r="M53" s="7">
+        <v>-65</v>
+      </c>
+      <c r="N53" s="7">
+        <v>-92</v>
+      </c>
+      <c r="O53" s="7">
+        <v>-141</v>
+      </c>
+      <c r="P53" s="7">
+        <v>-210</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>-459</v>
+      </c>
+      <c r="R53" s="7">
+        <v>-484</v>
+      </c>
+      <c r="S53" s="7">
+        <v>-848</v>
+      </c>
+      <c r="T53" s="7">
+        <v>-1417</v>
+      </c>
+      <c r="U53" s="7">
+        <v>-1600</v>
+      </c>
+      <c r="V53" s="7">
+        <v>-1647</v>
+      </c>
+      <c r="W53" s="7">
+        <v>-1809</v>
+      </c>
+      <c r="X53" s="7">
+        <v>-2367</v>
+      </c>
+      <c r="Y53" s="7">
+        <v>-3182</v>
+      </c>
+      <c r="Z53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:103" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" s="13">
+        <v>79</v>
+      </c>
+      <c r="M54" s="13">
+        <v>76</v>
+      </c>
+      <c r="N54" s="13">
+        <v>-80</v>
+      </c>
+      <c r="O54" s="13">
+        <v>-136</v>
+      </c>
+      <c r="P54" s="13">
+        <v>-118</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>-256</v>
+      </c>
+      <c r="R54" s="13">
+        <v>90</v>
+      </c>
+      <c r="S54" s="13">
+        <v>346</v>
+      </c>
+      <c r="T54" s="13">
+        <v>-183</v>
+      </c>
+      <c r="U54" s="13">
+        <v>203</v>
+      </c>
+      <c r="V54" s="13">
+        <v>2371</v>
+      </c>
+      <c r="W54" s="13">
+        <v>14633</v>
+      </c>
+      <c r="X54" s="13">
+        <v>-16806</v>
+      </c>
+      <c r="Y54" s="13">
+        <v>938</v>
+      </c>
+      <c r="Z54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="7" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G55" s="7">
+        <f>G51+SUM(G52:G54)</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" ref="H55:X55" si="34">H51+SUM(H52:H54)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="7">
+        <f t="shared" si="34"/>
+        <v>1497</v>
+      </c>
+      <c r="M55" s="7">
+        <f t="shared" si="34"/>
+        <v>934</v>
+      </c>
+      <c r="N55" s="7">
+        <f t="shared" si="34"/>
+        <v>544</v>
+      </c>
+      <c r="O55" s="7">
+        <f t="shared" si="34"/>
+        <v>506</v>
+      </c>
+      <c r="P55" s="7">
+        <f t="shared" si="34"/>
+        <v>-111</v>
+      </c>
+      <c r="Q55" s="7">
+        <f t="shared" si="34"/>
+        <v>1568</v>
+      </c>
+      <c r="R55" s="7">
+        <f t="shared" si="34"/>
+        <v>3892</v>
+      </c>
+      <c r="S55" s="7">
+        <f t="shared" si="34"/>
+        <v>3806</v>
+      </c>
+      <c r="T55" s="7">
+        <f t="shared" si="34"/>
+        <v>11261</v>
+      </c>
+      <c r="U55" s="7">
+        <f t="shared" si="34"/>
+        <v>13976</v>
+      </c>
+      <c r="V55" s="7">
+        <f t="shared" si="34"/>
+        <v>24178</v>
+      </c>
+      <c r="W55" s="7">
+        <f t="shared" si="34"/>
+        <v>38151</v>
+      </c>
+      <c r="X55" s="7">
+        <f t="shared" si="34"/>
+        <v>-5936</v>
+      </c>
+      <c r="Y55" s="7">
+        <f>Y51+SUM(Y52:Y54)</f>
+        <v>37557</v>
+      </c>
+      <c r="Z55" s="7">
+        <f t="shared" ref="Z55:AF55" si="35">Z51+SUM(Z52:Z54)</f>
+        <v>33337.53</v>
+      </c>
+      <c r="AA55" s="7">
+        <f t="shared" si="35"/>
+        <v>38671.534799999994</v>
+      </c>
+      <c r="AB55" s="7">
+        <f t="shared" si="35"/>
+        <v>44858.98036799999</v>
+      </c>
+      <c r="AC55" s="7">
+        <f t="shared" si="35"/>
+        <v>52036.417226879916</v>
+      </c>
+      <c r="AD55" s="7">
+        <f t="shared" si="35"/>
+        <v>60362.243983180728</v>
+      </c>
+      <c r="AE55" s="7">
+        <f t="shared" si="35"/>
+        <v>70020.203020489658</v>
+      </c>
+      <c r="AF55" s="7">
+        <f t="shared" si="35"/>
+        <v>81223.435503768036</v>
+      </c>
+    </row>
+    <row r="56" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="7" t="s">
+        <v>1921</v>
+      </c>
+      <c r="L56" s="7">
+        <v>-352</v>
+      </c>
+      <c r="M56" s="7">
+        <v>-291</v>
+      </c>
+      <c r="N56" s="7">
+        <v>-428</v>
+      </c>
+      <c r="O56" s="7">
+        <v>-161</v>
+      </c>
+      <c r="P56" s="7">
+        <v>-167</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>-950</v>
+      </c>
+      <c r="R56" s="7">
+        <v>-1425</v>
+      </c>
+      <c r="S56" s="7">
+        <v>-769</v>
+      </c>
+      <c r="T56" s="7">
+        <v>-1197</v>
+      </c>
+      <c r="U56" s="7">
+        <v>-2374</v>
+      </c>
+      <c r="V56" s="7">
+        <v>-2863</v>
+      </c>
+      <c r="W56" s="7">
+        <v>-4791</v>
+      </c>
+      <c r="X56" s="7">
+        <v>3217</v>
+      </c>
+      <c r="Y56" s="7">
+        <v>-7120</v>
+      </c>
+      <c r="Z56" s="7">
+        <f>Z55*Z73</f>
+        <v>-6667.5060000000003</v>
+      </c>
+      <c r="AA56" s="7">
+        <f t="shared" ref="AA56:AF56" si="36">AA55*AA73</f>
+        <v>-7734.306959999999</v>
+      </c>
+      <c r="AB56" s="7">
+        <f t="shared" si="36"/>
+        <v>-8971.7960735999986</v>
+      </c>
+      <c r="AC56" s="7">
+        <f t="shared" si="36"/>
+        <v>-10407.283445375984</v>
+      </c>
+      <c r="AD56" s="7">
+        <f t="shared" si="36"/>
+        <v>-12072.448796636147</v>
+      </c>
+      <c r="AE56" s="7">
+        <f t="shared" si="36"/>
+        <v>-14004.040604097932</v>
+      </c>
+      <c r="AF56" s="7">
+        <f t="shared" si="36"/>
+        <v>-16244.687100753608</v>
+      </c>
+    </row>
+    <row r="57" spans="2:103" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="13" t="s">
+        <v>1922</v>
+      </c>
+      <c r="L57" s="13">
+        <v>7</v>
+      </c>
+      <c r="M57" s="13">
+        <v>-12</v>
+      </c>
+      <c r="N57" s="13">
+        <v>-155</v>
+      </c>
+      <c r="O57" s="13">
+        <v>-71</v>
+      </c>
+      <c r="P57" s="13">
+        <v>37</v>
+      </c>
+      <c r="Q57" s="13">
+        <v>-22</v>
+      </c>
+      <c r="R57" s="13">
+        <v>-96</v>
+      </c>
+      <c r="S57" s="13">
+        <v>-4</v>
+      </c>
+      <c r="T57" s="13">
+        <v>9</v>
+      </c>
+      <c r="U57" s="13">
+        <v>-14</v>
+      </c>
+      <c r="V57" s="13">
+        <v>16</v>
+      </c>
+      <c r="W57" s="13">
+        <v>4</v>
+      </c>
+      <c r="X57" s="13">
+        <v>-3</v>
+      </c>
+      <c r="Y57" s="13">
+        <v>-12</v>
+      </c>
+      <c r="Z57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="7">
+        <f>SUM(G55:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <f t="shared" ref="H58:X58" si="37">SUM(H55:H57)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="7">
+        <f t="shared" si="37"/>
+        <v>1152</v>
+      </c>
+      <c r="M58" s="7">
+        <f t="shared" si="37"/>
+        <v>631</v>
+      </c>
+      <c r="N58" s="7">
+        <f t="shared" si="37"/>
+        <v>-39</v>
+      </c>
+      <c r="O58" s="7">
+        <f t="shared" si="37"/>
+        <v>274</v>
+      </c>
+      <c r="P58" s="7">
+        <f t="shared" si="37"/>
+        <v>-241</v>
+      </c>
+      <c r="Q58" s="7">
+        <f t="shared" si="37"/>
+        <v>596</v>
+      </c>
+      <c r="R58" s="7">
+        <f t="shared" si="37"/>
+        <v>2371</v>
+      </c>
+      <c r="S58" s="7">
+        <f t="shared" si="37"/>
+        <v>3033</v>
+      </c>
+      <c r="T58" s="7">
+        <f t="shared" si="37"/>
+        <v>10073</v>
+      </c>
+      <c r="U58" s="7">
+        <f t="shared" si="37"/>
+        <v>11588</v>
+      </c>
+      <c r="V58" s="7">
+        <f t="shared" si="37"/>
+        <v>21331</v>
+      </c>
+      <c r="W58" s="7">
+        <f t="shared" si="37"/>
+        <v>33364</v>
+      </c>
+      <c r="X58" s="7">
+        <f t="shared" si="37"/>
+        <v>-2722</v>
+      </c>
+      <c r="Y58" s="7">
+        <f>SUM(Y55:Y57)</f>
+        <v>30425</v>
+      </c>
+      <c r="Z58" s="7">
+        <f t="shared" ref="Z58:AF58" si="38">SUM(Z55:Z57)</f>
+        <v>26670.023999999998</v>
+      </c>
+      <c r="AA58" s="7">
+        <f t="shared" si="38"/>
+        <v>30937.227839999996</v>
+      </c>
+      <c r="AB58" s="7">
+        <f t="shared" si="38"/>
+        <v>35887.184294399995</v>
+      </c>
+      <c r="AC58" s="7">
+        <f t="shared" si="38"/>
+        <v>41629.13378150393</v>
+      </c>
+      <c r="AD58" s="7">
+        <f t="shared" si="38"/>
+        <v>48289.795186544579</v>
+      </c>
+      <c r="AE58" s="7">
+        <f t="shared" si="38"/>
+        <v>56016.162416391729</v>
+      </c>
+      <c r="AF58" s="7">
+        <f t="shared" si="38"/>
+        <v>64978.748403014426</v>
+      </c>
+      <c r="AG58" s="7">
+        <f>AF58*(1+$AJ$93)</f>
+        <v>65628.535887044578</v>
+      </c>
+      <c r="AH58" s="7">
+        <f t="shared" ref="AH58:CS58" si="39">AG58*(1+$AJ$93)</f>
+        <v>66284.821245915024</v>
+      </c>
+      <c r="AI58" s="7">
+        <f t="shared" si="39"/>
+        <v>66947.669458374177</v>
+      </c>
+      <c r="AJ58" s="7">
+        <f t="shared" si="39"/>
+        <v>67617.146152957925</v>
+      </c>
+      <c r="AK58" s="7">
+        <f t="shared" si="39"/>
+        <v>68293.317614487503</v>
+      </c>
+      <c r="AL58" s="7">
+        <f t="shared" si="39"/>
+        <v>68976.250790632374</v>
+      </c>
+      <c r="AM58" s="7">
+        <f t="shared" si="39"/>
+        <v>69666.013298538703</v>
+      </c>
+      <c r="AN58" s="7">
+        <f t="shared" si="39"/>
+        <v>70362.67343152409</v>
+      </c>
+      <c r="AO58" s="7">
+        <f t="shared" si="39"/>
+        <v>71066.300165839333</v>
+      </c>
+      <c r="AP58" s="7">
+        <f t="shared" si="39"/>
+        <v>71776.963167497728</v>
+      </c>
+      <c r="AQ58" s="7">
+        <f t="shared" si="39"/>
+        <v>72494.732799172707</v>
+      </c>
+      <c r="AR58" s="7">
+        <f t="shared" si="39"/>
+        <v>73219.680127164436</v>
+      </c>
+      <c r="AS58" s="7">
+        <f t="shared" si="39"/>
+        <v>73951.876928436075</v>
+      </c>
+      <c r="AT58" s="7">
+        <f t="shared" si="39"/>
+        <v>74691.395697720436</v>
+      </c>
+      <c r="AU58" s="7">
+        <f t="shared" si="39"/>
+        <v>75438.309654697645</v>
+      </c>
+      <c r="AV58" s="7">
+        <f t="shared" si="39"/>
+        <v>76192.692751244627</v>
+      </c>
+      <c r="AW58" s="7">
+        <f t="shared" si="39"/>
+        <v>76954.619678757081</v>
+      </c>
+      <c r="AX58" s="7">
+        <f t="shared" si="39"/>
+        <v>77724.165875544655</v>
+      </c>
+      <c r="AY58" s="7">
+        <f t="shared" si="39"/>
+        <v>78501.407534300102</v>
+      </c>
+      <c r="AZ58" s="7">
+        <f t="shared" si="39"/>
+        <v>79286.421609643105</v>
+      </c>
+      <c r="BA58" s="7">
+        <f t="shared" si="39"/>
+        <v>80079.285825739542</v>
+      </c>
+      <c r="BB58" s="7">
+        <f t="shared" si="39"/>
+        <v>80880.078683996937</v>
+      </c>
+      <c r="BC58" s="7">
+        <f t="shared" si="39"/>
+        <v>81688.87947083691</v>
+      </c>
+      <c r="BD58" s="7">
+        <f t="shared" si="39"/>
+        <v>82505.768265545281</v>
+      </c>
+      <c r="BE58" s="7">
+        <f t="shared" si="39"/>
+        <v>83330.825948200742</v>
+      </c>
+      <c r="BF58" s="7">
+        <f t="shared" si="39"/>
+        <v>84164.134207682757</v>
+      </c>
+      <c r="BG58" s="7">
+        <f t="shared" si="39"/>
+        <v>85005.775549759579</v>
+      </c>
+      <c r="BH58" s="7">
+        <f t="shared" si="39"/>
+        <v>85855.833305257169</v>
+      </c>
+      <c r="BI58" s="7">
+        <f t="shared" si="39"/>
+        <v>86714.391638309738</v>
+      </c>
+      <c r="BJ58" s="7">
+        <f t="shared" si="39"/>
+        <v>87581.535554692833</v>
+      </c>
+      <c r="BK58" s="7">
+        <f t="shared" si="39"/>
+        <v>88457.350910239766</v>
+      </c>
+      <c r="BL58" s="7">
+        <f t="shared" si="39"/>
+        <v>89341.924419342162</v>
+      </c>
+      <c r="BM58" s="7">
+        <f t="shared" si="39"/>
+        <v>90235.34366353559</v>
+      </c>
+      <c r="BN58" s="7">
+        <f t="shared" si="39"/>
+        <v>91137.697100170946</v>
+      </c>
+      <c r="BO58" s="7">
+        <f t="shared" si="39"/>
+        <v>92049.074071172654</v>
+      </c>
+      <c r="BP58" s="7">
+        <f t="shared" si="39"/>
+        <v>92969.564811884382</v>
+      </c>
+      <c r="BQ58" s="7">
+        <f t="shared" si="39"/>
+        <v>93899.260460003221</v>
+      </c>
+      <c r="BR58" s="7">
+        <f t="shared" si="39"/>
+        <v>94838.253064603254</v>
+      </c>
+      <c r="BS58" s="7">
+        <f t="shared" si="39"/>
+        <v>95786.635595249289</v>
+      </c>
+      <c r="BT58" s="7">
+        <f t="shared" si="39"/>
+        <v>96744.501951201775</v>
+      </c>
+      <c r="BU58" s="7">
+        <f t="shared" si="39"/>
+        <v>97711.946970713791</v>
+      </c>
+      <c r="BV58" s="7">
+        <f t="shared" si="39"/>
+        <v>98689.066440420924</v>
+      </c>
+      <c r="BW58" s="7">
+        <f t="shared" si="39"/>
+        <v>99675.957104825138</v>
+      </c>
+      <c r="BX58" s="7">
+        <f t="shared" si="39"/>
+        <v>100672.71667587339</v>
+      </c>
+      <c r="BY58" s="7">
+        <f t="shared" si="39"/>
+        <v>101679.44384263213</v>
+      </c>
+      <c r="BZ58" s="7">
+        <f t="shared" si="39"/>
+        <v>102696.23828105845</v>
+      </c>
+      <c r="CA58" s="7">
+        <f t="shared" si="39"/>
+        <v>103723.20066386904</v>
+      </c>
+      <c r="CB58" s="7">
+        <f t="shared" si="39"/>
+        <v>104760.43267050773</v>
+      </c>
+      <c r="CC58" s="7">
+        <f t="shared" si="39"/>
+        <v>105808.03699721281</v>
+      </c>
+      <c r="CD58" s="7">
+        <f t="shared" si="39"/>
+        <v>106866.11736718494</v>
+      </c>
+      <c r="CE58" s="7">
+        <f t="shared" si="39"/>
+        <v>107934.77854085679</v>
+      </c>
+      <c r="CF58" s="7">
+        <f t="shared" si="39"/>
+        <v>109014.12632626535</v>
+      </c>
+      <c r="CG58" s="7">
+        <f t="shared" si="39"/>
+        <v>110104.26758952801</v>
+      </c>
+      <c r="CH58" s="7">
+        <f t="shared" si="39"/>
+        <v>111205.31026542329</v>
+      </c>
+      <c r="CI58" s="7">
+        <f t="shared" si="39"/>
+        <v>112317.36336807752</v>
+      </c>
+      <c r="CJ58" s="7">
+        <f t="shared" si="39"/>
+        <v>113440.5370017583</v>
+      </c>
+      <c r="CK58" s="7">
+        <f t="shared" si="39"/>
+        <v>114574.94237177589</v>
+      </c>
+      <c r="CL58" s="7">
+        <f t="shared" si="39"/>
+        <v>115720.69179549365</v>
+      </c>
+      <c r="CM58" s="7">
+        <f t="shared" si="39"/>
+        <v>116877.89871344859</v>
+      </c>
+      <c r="CN58" s="7">
+        <f t="shared" si="39"/>
+        <v>118046.67770058308</v>
+      </c>
+      <c r="CO58" s="7">
+        <f t="shared" si="39"/>
+        <v>119227.14447758891</v>
+      </c>
+      <c r="CP58" s="7">
+        <f t="shared" si="39"/>
+        <v>120419.4159223648</v>
+      </c>
+      <c r="CQ58" s="7">
+        <f t="shared" si="39"/>
+        <v>121623.61008158846</v>
+      </c>
+      <c r="CR58" s="7">
+        <f t="shared" si="39"/>
+        <v>122839.84618240435</v>
+      </c>
+      <c r="CS58" s="7">
+        <f t="shared" si="39"/>
+        <v>124068.2446442284</v>
+      </c>
+      <c r="CT58" s="7">
+        <f t="shared" ref="CT58:CY58" si="40">CS58*(1+$AJ$93)</f>
+        <v>125308.92709067068</v>
+      </c>
+      <c r="CU58" s="7">
+        <f t="shared" si="40"/>
+        <v>126562.01636157739</v>
+      </c>
+      <c r="CV58" s="7">
+        <f t="shared" si="40"/>
+        <v>127827.63652519317</v>
+      </c>
+      <c r="CW58" s="7">
+        <f t="shared" si="40"/>
+        <v>129105.91289044511</v>
+      </c>
+      <c r="CX58" s="7">
+        <f t="shared" si="40"/>
+        <v>130396.97201934956</v>
+      </c>
+      <c r="CY58" s="7">
+        <f t="shared" si="40"/>
+        <v>131700.94173954305</v>
+      </c>
+    </row>
+    <row r="60" spans="2:103" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="10" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G60" s="10" t="e">
+        <f>G58/G62</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H60" s="10" t="e">
+        <f t="shared" ref="H60:X60" si="41">H58/H62</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I60" s="10" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J60" s="10" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="10" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L60" s="10">
+        <f t="shared" si="41"/>
+        <v>0.12885906040268458</v>
+      </c>
+      <c r="M60" s="10">
+        <f t="shared" si="41"/>
+        <v>6.9646799116997796E-2</v>
+      </c>
+      <c r="N60" s="10">
+        <f t="shared" si="41"/>
+        <v>-4.3046357615894038E-3</v>
+      </c>
+      <c r="O60" s="10">
+        <f t="shared" si="41"/>
+        <v>2.9978118161925603E-2</v>
+      </c>
+      <c r="P60" s="10">
+        <f t="shared" si="41"/>
+        <v>-2.6082251082251082E-2</v>
+      </c>
+      <c r="Q60" s="10">
+        <f t="shared" si="41"/>
+        <v>6.3811563169164878E-2</v>
+      </c>
+      <c r="R60" s="10">
+        <f t="shared" si="41"/>
+        <v>0.25010548523206749</v>
+      </c>
+      <c r="S60" s="10">
+        <f t="shared" si="41"/>
+        <v>0.31593749999999998</v>
+      </c>
+      <c r="T60" s="10">
+        <f t="shared" si="41"/>
+        <v>1.0341889117043122</v>
+      </c>
+      <c r="U60" s="10">
+        <f t="shared" si="41"/>
+        <v>1.1728744939271256</v>
+      </c>
+      <c r="V60" s="10">
+        <f t="shared" si="41"/>
+        <v>2.1331000000000002</v>
+      </c>
+      <c r="W60" s="10">
+        <f t="shared" si="41"/>
+        <v>3.2978155579717305</v>
+      </c>
+      <c r="X60" s="10">
+        <f t="shared" si="41"/>
+        <v>-0.2671508489547551</v>
+      </c>
+      <c r="Y60" s="10">
+        <f>Y58/Y62</f>
+        <v>2.9527368012422359</v>
+      </c>
+    </row>
+    <row r="61" spans="2:103" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="10" t="e">
+        <f>G58/G63</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H61" s="10" t="e">
+        <f t="shared" ref="H61:X61" si="42">H58/H63</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I61" s="10" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J61" s="10" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K61" s="10" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L61" s="10">
+        <f t="shared" si="42"/>
+        <v>0.12631578947368421</v>
+      </c>
+      <c r="M61" s="10">
+        <f t="shared" si="42"/>
+        <v>6.8438177874186545E-2</v>
+      </c>
+      <c r="N61" s="10">
+        <f t="shared" si="42"/>
+        <v>-4.3046357615894038E-3</v>
+      </c>
+      <c r="O61" s="10">
+        <f t="shared" si="42"/>
+        <v>2.9462365591397848E-2</v>
+      </c>
+      <c r="P61" s="10">
+        <f t="shared" si="42"/>
+        <v>-2.6082251082251082E-2</v>
+      </c>
+      <c r="Q61" s="10">
+        <f t="shared" si="42"/>
+        <v>6.247379454926625E-2</v>
+      </c>
+      <c r="R61" s="10">
+        <f t="shared" si="42"/>
+        <v>0.24493801652892561</v>
+      </c>
+      <c r="S61" s="10">
+        <f t="shared" si="42"/>
+        <v>0.30760649087221098</v>
+      </c>
+      <c r="T61" s="10">
+        <f t="shared" si="42"/>
+        <v>1.0073000000000001</v>
+      </c>
+      <c r="U61" s="10">
+        <f t="shared" si="42"/>
+        <v>1.1496031746031745</v>
+      </c>
+      <c r="V61" s="10">
+        <f t="shared" si="42"/>
+        <v>2.0912745098039216</v>
+      </c>
+      <c r="W61" s="10">
+        <f t="shared" si="42"/>
+        <v>3.2404817404817403</v>
+      </c>
+      <c r="X61" s="10">
+        <f t="shared" si="42"/>
+        <v>-0.2671508489547551</v>
+      </c>
+      <c r="Y61" s="10">
+        <f>Y58/Y63</f>
+        <v>2.8998284407167367</v>
+      </c>
+    </row>
+    <row r="62" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L62" s="7">
+        <f>L64*20</f>
+        <v>8940</v>
+      </c>
+      <c r="M62" s="7">
+        <f t="shared" ref="M62:Q62" si="43">M64*20</f>
+        <v>9060</v>
+      </c>
+      <c r="N62" s="7">
+        <f t="shared" si="43"/>
+        <v>9060</v>
+      </c>
+      <c r="O62" s="7">
+        <f t="shared" si="43"/>
+        <v>9140</v>
+      </c>
+      <c r="P62" s="7">
+        <f t="shared" si="43"/>
+        <v>9240</v>
+      </c>
+      <c r="Q62" s="7">
+        <f t="shared" si="43"/>
+        <v>9340</v>
+      </c>
+      <c r="R62" s="7">
+        <f t="shared" ref="R62:V63" si="44">R64*20</f>
+        <v>9480</v>
+      </c>
+      <c r="S62" s="7">
+        <f t="shared" si="44"/>
+        <v>9600</v>
+      </c>
+      <c r="T62" s="7">
+        <f t="shared" si="44"/>
+        <v>9740</v>
+      </c>
+      <c r="U62" s="7">
+        <f t="shared" si="44"/>
+        <v>9880</v>
+      </c>
+      <c r="V62" s="7">
+        <f t="shared" si="44"/>
+        <v>10000</v>
+      </c>
+      <c r="W62" s="7">
+        <v>10117</v>
+      </c>
+      <c r="X62" s="7">
+        <v>10189</v>
+      </c>
+      <c r="Y62" s="7">
+        <v>10304</v>
+      </c>
+    </row>
+    <row r="63" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="7" t="s">
+        <v>1924</v>
+      </c>
+      <c r="L63" s="7">
+        <f>L65*20</f>
+        <v>9120</v>
+      </c>
+      <c r="M63" s="7">
+        <f t="shared" ref="M63:Q63" si="45">M65*20</f>
+        <v>9220</v>
+      </c>
+      <c r="N63" s="7">
+        <f t="shared" si="45"/>
+        <v>9060</v>
+      </c>
+      <c r="O63" s="7">
+        <f t="shared" si="45"/>
+        <v>9300</v>
+      </c>
+      <c r="P63" s="7">
+        <f t="shared" si="45"/>
+        <v>9240</v>
+      </c>
+      <c r="Q63" s="7">
+        <f t="shared" si="45"/>
+        <v>9540</v>
+      </c>
+      <c r="R63" s="7">
+        <f t="shared" si="44"/>
+        <v>9680</v>
+      </c>
+      <c r="S63" s="7">
+        <f t="shared" si="44"/>
+        <v>9860</v>
+      </c>
+      <c r="T63" s="7">
+        <f t="shared" si="44"/>
+        <v>10000</v>
+      </c>
+      <c r="U63" s="7">
+        <f t="shared" si="44"/>
+        <v>10080</v>
+      </c>
+      <c r="V63" s="7">
+        <f t="shared" si="44"/>
+        <v>10200</v>
+      </c>
+      <c r="W63" s="7">
+        <v>10296</v>
+      </c>
+      <c r="X63" s="7">
+        <v>10189</v>
+      </c>
+      <c r="Y63" s="7">
+        <v>10492</v>
+      </c>
+    </row>
+    <row r="64" spans="2:103" x14ac:dyDescent="0.35">
+      <c r="L64">
+        <v>447</v>
+      </c>
+      <c r="M64">
+        <v>453</v>
+      </c>
+      <c r="N64">
+        <v>453</v>
+      </c>
+      <c r="O64">
+        <v>457</v>
+      </c>
+      <c r="P64">
+        <v>462</v>
+      </c>
+      <c r="Q64">
+        <v>467</v>
+      </c>
+      <c r="R64">
+        <v>474</v>
+      </c>
+      <c r="S64">
+        <v>480</v>
+      </c>
+      <c r="T64">
+        <v>487</v>
+      </c>
+      <c r="U64">
+        <v>494</v>
+      </c>
+      <c r="V64">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="L65">
+        <v>456</v>
+      </c>
+      <c r="M65">
+        <v>461</v>
+      </c>
+      <c r="N65">
+        <v>453</v>
+      </c>
+      <c r="O65">
+        <v>465</v>
+      </c>
+      <c r="P65">
+        <v>462</v>
+      </c>
+      <c r="Q65">
+        <v>477</v>
+      </c>
+      <c r="R65">
+        <v>484</v>
+      </c>
+      <c r="S65">
+        <v>493</v>
+      </c>
+      <c r="T65">
+        <v>500</v>
+      </c>
+      <c r="U65">
+        <v>504</v>
+      </c>
+      <c r="V65">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="68" spans="2:35" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="33" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="69" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G69" s="4" t="e">
+        <f>G42/F42-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H69" s="4" t="e">
+        <f t="shared" ref="H69:X69" si="46">H42/G42-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I69" s="4" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J69" s="4" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K69" s="4" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L69" s="4" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M69" s="4">
+        <f t="shared" si="46"/>
+        <v>0.40559583674424049</v>
+      </c>
+      <c r="N69" s="4">
+        <f t="shared" si="46"/>
+        <v>0.27073236682821311</v>
+      </c>
+      <c r="O69" s="4">
+        <f t="shared" si="46"/>
+        <v>0.21866662301736706</v>
+      </c>
+      <c r="P69" s="4">
+        <f t="shared" si="46"/>
+        <v>0.1952398861011122</v>
+      </c>
+      <c r="Q69" s="4">
+        <f t="shared" si="46"/>
+        <v>0.20247673843664304</v>
+      </c>
+      <c r="R69" s="4">
+        <f t="shared" si="46"/>
+        <v>0.27083528026465808</v>
+      </c>
+      <c r="S69" s="4">
+        <f t="shared" si="46"/>
+        <v>0.30796326119408479</v>
+      </c>
+      <c r="T69" s="4">
+        <f t="shared" si="46"/>
+        <v>0.3093396152159491</v>
+      </c>
+      <c r="U69" s="4">
+        <f t="shared" si="46"/>
+        <v>0.20454125820676983</v>
+      </c>
+      <c r="V69" s="4">
+        <f t="shared" si="46"/>
+        <v>0.37623430604373276</v>
+      </c>
+      <c r="W69" s="4">
+        <f t="shared" si="46"/>
+        <v>0.21695366571345676</v>
+      </c>
+      <c r="X69" s="4">
+        <f t="shared" si="46"/>
+        <v>9.399517263985091E-2</v>
+      </c>
+      <c r="Y69" s="4">
+        <f>Y42/X42-1</f>
+        <v>0.1182957412988368</v>
+      </c>
+      <c r="Z69" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="AA69" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="AB69" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="AC69" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="AD69" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="AE69" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="AF69" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="AG69" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="70" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="2:35" s="102" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="102" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="G72" s="4" t="e">
+        <f>G44/G42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H72" s="4" t="e">
+        <f t="shared" ref="H72:X72" si="47">H44/H42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I72" s="4" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J72" s="4" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K72" s="4" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L72" s="4">
+        <f t="shared" si="47"/>
+        <v>0.22345339726347796</v>
+      </c>
+      <c r="M72" s="4">
+        <f t="shared" si="47"/>
+        <v>0.22441084094265448</v>
+      </c>
+      <c r="N72" s="4">
+        <f t="shared" si="47"/>
+        <v>0.24752426628255284</v>
+      </c>
+      <c r="O72" s="4">
+        <f t="shared" si="47"/>
+        <v>0.27226938161500025</v>
+      </c>
+      <c r="P72" s="4">
+        <f t="shared" si="47"/>
+        <v>0.29482626871038792</v>
+      </c>
+      <c r="Q72" s="4">
+        <f t="shared" si="47"/>
+        <v>0.33040203353083003</v>
+      </c>
+      <c r="R72" s="4">
+        <f t="shared" si="47"/>
+        <v>0.35093060366064405</v>
+      </c>
+      <c r="S72" s="4">
+        <f t="shared" si="47"/>
+        <v>0.3706835482891615</v>
+      </c>
+      <c r="T72" s="4">
+        <f t="shared" si="47"/>
+        <v>0.40247416128852193</v>
+      </c>
+      <c r="U72" s="4">
+        <f t="shared" si="47"/>
+        <v>0.40990011478600608</v>
+      </c>
+      <c r="V72" s="4">
+        <f t="shared" si="47"/>
+        <v>0.3956779186870571</v>
+      </c>
+      <c r="W72" s="4">
+        <f t="shared" si="47"/>
+        <v>0.42032514441639601</v>
+      </c>
+      <c r="X72" s="4">
+        <f t="shared" si="47"/>
+        <v>0.43805339865326287</v>
+      </c>
+      <c r="Y72" s="4">
+        <f>Y44/Y42</f>
+        <v>0.46982088955000567</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="AA72" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="AB72" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="AC72" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="AD72" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="AE72" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="AF72" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="AG72" s="4">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="4" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G73" s="4" t="e">
+        <f>G56/G55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H73" s="4" t="e">
+        <f t="shared" ref="H73:Y73" si="48">H56/H55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I73" s="4" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J73" s="4" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K73" s="4" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L73" s="4">
+        <f t="shared" si="48"/>
+        <v>-0.23513694054776219</v>
+      </c>
+      <c r="M73" s="4">
+        <f t="shared" si="48"/>
+        <v>-0.31156316916488225</v>
+      </c>
+      <c r="N73" s="4">
+        <f t="shared" si="48"/>
+        <v>-0.78676470588235292</v>
+      </c>
+      <c r="O73" s="4">
+        <f t="shared" si="48"/>
+        <v>-0.31818181818181818</v>
+      </c>
+      <c r="P73" s="4">
+        <f t="shared" si="48"/>
+        <v>1.5045045045045045</v>
+      </c>
+      <c r="Q73" s="4">
+        <f t="shared" si="48"/>
+        <v>-0.60586734693877553</v>
+      </c>
+      <c r="R73" s="4">
+        <f t="shared" si="48"/>
+        <v>-0.36613566289825283</v>
+      </c>
+      <c r="S73" s="4">
+        <f t="shared" si="48"/>
+        <v>-0.20204939569101418</v>
+      </c>
+      <c r="T73" s="4">
+        <f t="shared" si="48"/>
+        <v>-0.10629606606873279</v>
+      </c>
+      <c r="U73" s="4">
+        <f t="shared" si="48"/>
+        <v>-0.16986262163709215</v>
+      </c>
+      <c r="V73" s="4">
+        <f t="shared" si="48"/>
+        <v>-0.1184134337000579</v>
+      </c>
+      <c r="W73" s="4">
+        <f t="shared" si="48"/>
+        <v>-0.12557993237398757</v>
+      </c>
+      <c r="X73" s="4">
+        <f t="shared" si="48"/>
+        <v>-0.54194743935309975</v>
+      </c>
+      <c r="Y73" s="4">
+        <f t="shared" si="48"/>
+        <v>-0.18957850733551668</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="AA73" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="AB73" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="AC73" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="AD73" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="AE73" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="AF73" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="AG73" s="4">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:35" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="33" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="76" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" s="4" t="e">
+        <f>G45/G$42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H76" s="4" t="e">
+        <f t="shared" ref="H76:X76" si="49">H45/H$42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I76" s="4" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J76" s="4" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K76" s="4" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L76" s="4">
+        <f t="shared" si="49"/>
+        <v>8.4726932522511983E-2</v>
+      </c>
+      <c r="M76" s="4">
+        <f t="shared" si="49"/>
+        <v>9.5180647710963656E-2</v>
+      </c>
+      <c r="N76" s="4">
+        <f t="shared" si="49"/>
+        <v>0.10506932054408852</v>
+      </c>
+      <c r="O76" s="4">
+        <f t="shared" si="49"/>
+        <v>0.11530919249986568</v>
+      </c>
+      <c r="P76" s="4">
+        <f t="shared" si="49"/>
+        <v>0.12098260439609836</v>
+      </c>
+      <c r="Q76" s="4">
+        <f t="shared" si="49"/>
+        <v>0.1253200755097845</v>
+      </c>
+      <c r="R76" s="4">
+        <f t="shared" si="49"/>
+        <v>0.12956385536852788</v>
+      </c>
+      <c r="S76" s="4">
+        <f t="shared" si="49"/>
+        <v>0.14195517974205302</v>
+      </c>
+      <c r="T76" s="4">
+        <f t="shared" si="49"/>
+        <v>0.14610948657503425</v>
+      </c>
+      <c r="U76" s="4">
+        <f t="shared" si="49"/>
+        <v>0.14341834152045116</v>
+      </c>
+      <c r="V76" s="4">
+        <f t="shared" si="49"/>
+        <v>0.15157331426913673</v>
+      </c>
+      <c r="W76" s="4">
+        <f t="shared" si="49"/>
+        <v>0.15987118525739535</v>
+      </c>
+      <c r="X76" s="4">
+        <f t="shared" si="49"/>
+        <v>0.16401126107283703</v>
+      </c>
+      <c r="Y76" s="4">
+        <f>Y45/Y$42</f>
+        <v>0.1576572109571405</v>
+      </c>
+      <c r="Z76" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="AA76" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="AB76" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="AC76" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="AD76" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="AE76" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="AF76" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="AG76" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="4" t="s">
+        <v>1934</v>
+      </c>
+      <c r="G77" s="4" t="e">
+        <f>G46/G$42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H77" s="4" t="e">
+        <f t="shared" ref="H77:X77" si="50">H46/H$42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I77" s="4" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J77" s="4" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K77" s="4" t="e">
+        <f t="shared" si="50"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L77" s="4">
+        <f t="shared" si="50"/>
+        <v>3.0084200678283241E-2</v>
+      </c>
+      <c r="M77" s="4">
+        <f t="shared" si="50"/>
+        <v>3.3903945753686791E-2</v>
+      </c>
+      <c r="N77" s="4">
+        <f t="shared" si="50"/>
+        <v>3.9415317630497763E-2</v>
+      </c>
+      <c r="O77" s="4">
+        <f t="shared" si="50"/>
+        <v>4.2080803739321979E-2</v>
+      </c>
+      <c r="P77" s="4">
+        <f t="shared" si="50"/>
+        <v>4.8680720996089361E-2</v>
+      </c>
+      <c r="Q77" s="4">
+        <f t="shared" si="50"/>
+        <v>4.9100050464459935E-2</v>
+      </c>
+      <c r="R77" s="4">
+        <f t="shared" si="50"/>
+        <v>5.3188907763242074E-2</v>
+      </c>
+      <c r="S77" s="4">
+        <f t="shared" si="50"/>
+        <v>5.6610032271485276E-2</v>
+      </c>
+      <c r="T77" s="4">
+        <f t="shared" si="50"/>
+        <v>5.9316320790769775E-2</v>
+      </c>
+      <c r="U77" s="4">
+        <f t="shared" si="50"/>
+        <v>0.12808621070718162</v>
+      </c>
+      <c r="V77" s="4">
+        <f t="shared" si="50"/>
+        <v>0.11070703303079282</v>
+      </c>
+      <c r="W77" s="4">
+        <f t="shared" si="50"/>
+        <v>0.11930475797216818</v>
+      </c>
+      <c r="X77" s="4">
+        <f t="shared" si="50"/>
+        <v>0.14244245432241923</v>
+      </c>
+      <c r="Y77" s="4">
+        <f>Y46/Y$42</f>
+        <v>0.14896352549214054</v>
+      </c>
+      <c r="Z77" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AA77" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AB77" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AC77" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AD77" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AE77" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AF77" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="AG77" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="78" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="4" t="s">
+        <v>1914</v>
+      </c>
+      <c r="G78" s="4" t="e">
+        <f>G47/G$42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H78" s="4" t="e">
+        <f t="shared" ref="H78:X78" si="51">H47/H$42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I78" s="4" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J78" s="4" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K78" s="4" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L78" s="4">
+        <f t="shared" si="51"/>
+        <v>5.0695825049701791E-2</v>
+      </c>
+      <c r="M78" s="4">
+        <f t="shared" si="51"/>
+        <v>6.0507103188634899E-2</v>
+      </c>
+      <c r="N78" s="4">
+        <f t="shared" si="51"/>
+        <v>7.4705776439199248E-2</v>
+      </c>
+      <c r="O78" s="4">
+        <f t="shared" si="51"/>
+        <v>8.8177617794014937E-2</v>
+      </c>
+      <c r="P78" s="4">
+        <f t="shared" si="51"/>
+        <v>0.10422753629702881</v>
+      </c>
+      <c r="Q78" s="4">
+        <f t="shared" si="51"/>
+        <v>0.11718969029774032</v>
+      </c>
+      <c r="R78" s="4">
+        <f t="shared" si="51"/>
+        <v>0.11828336532168517</v>
+      </c>
+      <c r="S78" s="4">
+        <f t="shared" si="51"/>
+        <v>0.12717438970910686</v>
+      </c>
+      <c r="T78" s="4">
+        <f t="shared" si="51"/>
+        <v>0.12382400048091993</v>
+      </c>
+      <c r="U78" s="4">
+        <f t="shared" si="51"/>
+        <v>6.7295969656568824E-2</v>
+      </c>
+      <c r="V78" s="4">
+        <f t="shared" si="51"/>
+        <v>5.7006092254134028E-2</v>
+      </c>
+      <c r="W78" s="4">
+        <f t="shared" si="51"/>
+        <v>6.9283686161993263E-2</v>
+      </c>
+      <c r="X78" s="4">
+        <f t="shared" si="51"/>
+        <v>8.2177815219569517E-2</v>
+      </c>
+      <c r="Y78" s="4">
+        <f>Y47/Y$42</f>
+        <v>7.7194081265168718E-2</v>
+      </c>
+      <c r="Z78" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AA78" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AB78" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AC78" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AD78" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AE78" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AF78" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AG78" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="79" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="4" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G79" s="4" t="e">
+        <f>G48/G$42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H79" s="4" t="e">
+        <f t="shared" ref="H79:X79" si="52">H48/H$42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I79" s="4" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J79" s="4" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K79" s="4" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L79" s="4">
+        <f t="shared" si="52"/>
+        <v>1.3741082914279031E-2</v>
+      </c>
+      <c r="M79" s="4">
+        <f t="shared" si="52"/>
+        <v>1.3686378101795037E-2</v>
+      </c>
+      <c r="N79" s="4">
+        <f t="shared" si="52"/>
+        <v>1.4666164699720098E-2</v>
+      </c>
+      <c r="O79" s="4">
+        <f t="shared" si="52"/>
+        <v>1.5164132595497771E-2</v>
+      </c>
+      <c r="P79" s="4">
+        <f t="shared" si="52"/>
+        <v>1.7440553782532477E-2</v>
+      </c>
+      <c r="Q79" s="4">
+        <f t="shared" si="52"/>
+        <v>1.6326187316599069E-2</v>
+      </c>
+      <c r="R79" s="4">
+        <f t="shared" si="52"/>
+        <v>1.7884062447145684E-2</v>
+      </c>
+      <c r="S79" s="4">
+        <f t="shared" si="52"/>
+        <v>2.0655999460267842E-2</v>
+      </c>
+      <c r="T79" s="4">
+        <f t="shared" si="52"/>
+        <v>1.8618471619283171E-2</v>
+      </c>
+      <c r="U79" s="4">
+        <f t="shared" si="52"/>
+        <v>1.8547564896870834E-2</v>
+      </c>
+      <c r="V79" s="4">
+        <f t="shared" si="52"/>
+        <v>1.7271747689502258E-2</v>
+      </c>
+      <c r="W79" s="4">
+        <f t="shared" si="52"/>
+        <v>1.8779452643767215E-2</v>
+      </c>
+      <c r="X79" s="4">
+        <f t="shared" si="52"/>
+        <v>2.3135006410717866E-2</v>
+      </c>
+      <c r="Y79" s="4">
+        <f>Y48/Y$42</f>
+        <v>2.0557251841993092E-2</v>
+      </c>
+      <c r="Z79" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AA79" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AB79" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AC79" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AD79" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AE79" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AF79" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="AG79" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="80" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="G80" s="4" t="e">
+        <f>G49/G$42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H80" s="4" t="e">
+        <f t="shared" ref="H80:X80" si="53">H49/H$42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I80" s="4" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J80" s="4" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K80" s="4" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L80" s="4">
+        <f t="shared" si="53"/>
+        <v>3.0990527423693137E-3</v>
+      </c>
+      <c r="M80" s="4">
+        <f t="shared" si="53"/>
+        <v>3.2031948748882E-3</v>
+      </c>
+      <c r="N80" s="4">
+        <f t="shared" si="53"/>
+        <v>2.6025894947047943E-3</v>
+      </c>
+      <c r="O80" s="4">
+        <f t="shared" si="53"/>
+        <v>1.5311878794391017E-3</v>
+      </c>
+      <c r="P80" s="4">
+        <f t="shared" si="53"/>
+        <v>1.4945835393536206E-3</v>
+      </c>
+      <c r="Q80" s="4">
+        <f t="shared" si="53"/>
+        <v>1.5980412313328224E-3</v>
+      </c>
+      <c r="R80" s="4">
+        <f t="shared" si="53"/>
+        <v>1.2280585644215991E-3</v>
+      </c>
+      <c r="S80" s="4">
+        <f t="shared" si="53"/>
+        <v>1.2031529353558298E-3</v>
+      </c>
+      <c r="T80" s="4">
+        <f t="shared" si="53"/>
+        <v>1.271002675117117E-3</v>
+      </c>
+      <c r="U80" s="4">
+        <f t="shared" si="53"/>
+        <v>7.1652134235461028E-4</v>
+      </c>
+      <c r="V80" s="4">
+        <f t="shared" si="53"/>
+        <v>-1.9426830784533136E-4</v>
+      </c>
+      <c r="W80" s="4">
+        <f t="shared" si="53"/>
+        <v>1.3196487180251244E-4</v>
+      </c>
+      <c r="X80" s="4">
+        <f t="shared" si="53"/>
+        <v>2.4572797154769712E-3</v>
+      </c>
+      <c r="Y80" s="4">
+        <f>Y49/Y$42</f>
+        <v>1.334411997529511E-3</v>
+      </c>
+      <c r="Z80" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="81" spans="35:39" x14ac:dyDescent="0.35">
+      <c r="AI81" s="100" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ81" s="100"/>
+      <c r="AK81" s="100"/>
+      <c r="AL81" s="100"/>
+      <c r="AM81" s="100"/>
+    </row>
+    <row r="82" spans="35:39" x14ac:dyDescent="0.35">
+      <c r="AI82" s="100" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AJ82" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="83" spans="35:39" x14ac:dyDescent="0.35">
+      <c r="AI83" s="100" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AJ83" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="35:39" x14ac:dyDescent="0.35">
+      <c r="AI84" s="100" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AJ84" s="103">
+        <f>NPV(AJ83,AG42:CY42)</f>
+        <v>18187615.750651874</v>
+      </c>
+    </row>
+    <row r="85" spans="35:39" x14ac:dyDescent="0.35">
+      <c r="AI85" s="100" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AJ85" s="103">
+        <f>AJ84/Y$62</f>
+        <v>1765.1024602728914</v>
+      </c>
+    </row>
+    <row r="86" spans="35:39" x14ac:dyDescent="0.35">
+      <c r="AI86" s="100" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AJ86" s="32" cm="1">
+        <f t="array" ref="AJ86">_FV(AI81,"Price")</f>
+        <v>186.98</v>
+      </c>
+    </row>
+    <row r="87" spans="35:39" x14ac:dyDescent="0.35">
+      <c r="AI87" s="100"/>
+    </row>
+    <row r="91" spans="35:39" x14ac:dyDescent="0.35">
+      <c r="AI91" s="4" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AJ91" s="4"/>
+      <c r="AK91" s="4"/>
+      <c r="AL91" s="4"/>
+      <c r="AM91" s="4"/>
+    </row>
+    <row r="92" spans="35:39" x14ac:dyDescent="0.35">
+      <c r="AI92" s="100" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ92" s="100"/>
+      <c r="AK92" s="100"/>
+      <c r="AL92" s="100"/>
+      <c r="AM92" s="100"/>
+    </row>
+    <row r="93" spans="35:39" x14ac:dyDescent="0.35">
+      <c r="AI93" s="100" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AJ93" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="94" spans="35:39" x14ac:dyDescent="0.35">
+      <c r="AI94" s="100" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AJ94" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="35:39" x14ac:dyDescent="0.35">
+      <c r="AI95" s="100" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AJ95" s="103">
+        <f>NPV(AJ94,AG58:CY58)</f>
+        <v>727504.63002607552</v>
+      </c>
+    </row>
+    <row r="96" spans="35:39" x14ac:dyDescent="0.35">
+      <c r="AI96" s="100" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AJ96" s="103">
+        <f>AJ95/Y$62</f>
+        <v>70.604098410915711</v>
+      </c>
+    </row>
+    <row r="97" spans="35:36" x14ac:dyDescent="0.35">
+      <c r="AI97" s="100" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AJ97" s="32" cm="1">
+        <f t="array" ref="AJ97">_FV(AI92,"Price")</f>
+        <v>186.98</v>
+      </c>
+    </row>
+    <row r="98" spans="35:36" x14ac:dyDescent="0.35">
+      <c r="AI98" s="100"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R79"/>
   <sheetViews>
@@ -32436,7 +38297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
@@ -35377,7 +41238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
@@ -38707,7 +44568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
